--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_0_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_0_27.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2251214.579000616</v>
+        <v>2326744.248665422</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1519205.660039382</v>
+        <v>1128137.828979971</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.51166597</v>
+        <v>1169509.511665971</v>
       </c>
     </row>
     <row r="9">
@@ -656,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -677,7 +679,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>27.78560849791136</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,22 +712,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>7.066901443129238</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -859,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -868,13 +870,13 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>99.66075074687581</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>162.3364906735232</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -883,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>265.7952079713671</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>240.9592984209434</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -956,10 +958,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1051,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>15.1823972622756</v>
       </c>
       <c r="C7" t="n">
-        <v>113.2870337730222</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1066,16 +1068,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1117,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1139,16 +1141,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -1178,28 +1180,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>257.4539638546318</v>
+        <v>159.4368283879286</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1291,28 +1293,28 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>44.25393884682849</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1336,10 +1338,10 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>155.3197306044665</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1388,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648052002</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1433,7 +1435,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1467,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1576,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>115.8434257527677</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1588,13 +1590,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>36.94125300354747</v>
       </c>
     </row>
     <row r="14">
@@ -1625,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527396</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1661,7 +1663,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1762,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>80.26551479403135</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>37.56516399334255</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1831,7 +1833,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1853,7 +1855,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417112</v>
       </c>
       <c r="G17" t="n">
         <v>411.9645167896915</v>
@@ -2002,7 +2004,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>44.42232944954128</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -2014,7 +2016,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2050,19 +2052,19 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>241.3042408598806</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2099,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2141,10 +2143,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.2409687174118</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2178,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014446</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2239,13 +2241,13 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>46.69369367123141</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2257,7 +2259,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>4.46707130753606</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985813</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,16 +2368,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U23" t="n">
-        <v>251.0785952497999</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2415,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,22 +2475,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2521,25 +2523,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>247.5484684357384</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2552,25 +2554,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722621</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896901</v>
+        <v>411.9645167896903</v>
       </c>
       <c r="H26" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
         <v>81.77913505274074</v>
@@ -2609,10 +2611,10 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
-        <v>251.0785952498009</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2621,7 +2623,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2652,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2713,7 +2715,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -2722,7 +2724,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2758,19 +2760,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>85.61718568535295</v>
+        <v>188.4590648403907</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2779,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2789,16 +2791,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634791</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.6830416206829</v>
+        <v>354.6830416206836</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2810,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274066</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
-        <v>208.4827883385011</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U29" t="n">
         <v>251.078595249801</v>
@@ -2889,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014446</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2953,22 +2955,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,22 +3000,22 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>36.94125300354725</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3047,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
-        <v>208.4827883384993</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U32" t="n">
         <v>251.078595249801</v>
@@ -3095,7 +3097,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>386.237938656054</v>
       </c>
     </row>
     <row r="33">
@@ -3126,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014446</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,13 +3186,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3205,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3238,13 +3240,13 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>50.75136046586628</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3253,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>115.5269768002176</v>
       </c>
     </row>
     <row r="35">
@@ -3263,25 +3265,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9645167896897</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H35" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
         <v>81.77913505274074</v>
@@ -3320,10 +3322,10 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
-        <v>251.0785952498009</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3332,7 +3334,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3363,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014446</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3424,13 +3426,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986235</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3472,7 +3474,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -3484,10 +3486,10 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>130.7675922068326</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>79.2807448697958</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3521,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014446</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>118.4898845065121</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3670,10 +3672,10 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>125.5920542696379</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3706,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.2373523985773</v>
@@ -3721,13 +3723,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3758,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014446</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3898,25 +3900,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>3.633341602776479</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3949,10 +3951,10 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3961,7 +3963,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>19.44625748409363</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -3995,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4037,7 +4039,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.2409687174136</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -4074,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014446</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4141,7 +4143,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>5.56262439642444</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4180,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
@@ -4304,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1732.515907621104</v>
+        <v>1238.153685885794</v>
       </c>
       <c r="C2" t="n">
-        <v>1363.553390680693</v>
+        <v>1238.153685885794</v>
       </c>
       <c r="D2" t="n">
-        <v>1363.553390680693</v>
+        <v>1238.153685885794</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>1238.153685885794</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>827.1677810961862</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>409.2039729943731</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>82.00925303037593</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4358,22 +4360,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2423.485734520778</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U2" t="n">
-        <v>2423.485734520778</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V2" t="n">
-        <v>2092.422847177208</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="W2" t="n">
-        <v>1739.654191907093</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="X2" t="n">
-        <v>1732.515907621104</v>
+        <v>2014.892857925727</v>
       </c>
       <c r="Y2" t="n">
-        <v>1732.515907621104</v>
+        <v>1624.753525949915</v>
       </c>
     </row>
     <row r="3">
@@ -4398,7 +4400,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4431,7 +4433,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4507,28 +4509,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>598.0446400632119</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>598.0446400632119</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>343.360151857325</v>
+        <v>564.1527310008552</v>
       </c>
       <c r="W4" t="n">
-        <v>53.94298182036445</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036445</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y4" t="n">
         <v>53.94298182036445</v>
@@ -4541,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1443.489535627676</v>
+        <v>1606.946621408918</v>
       </c>
       <c r="C5" t="n">
-        <v>1074.527018687264</v>
+        <v>1606.946621408918</v>
       </c>
       <c r="D5" t="n">
-        <v>806.0470106353782</v>
+        <v>1606.946621408918</v>
       </c>
       <c r="E5" t="n">
-        <v>806.0470106353782</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F5" t="n">
-        <v>395.0611058457707</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4592,25 +4594,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2423.485734520778</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2169.72394915887</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V5" t="n">
-        <v>2169.72394915887</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W5" t="n">
-        <v>1816.955293888756</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="X5" t="n">
-        <v>1443.489535627676</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="Y5" t="n">
-        <v>1443.489535627676</v>
+        <v>1993.54646147304</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4662,25 +4664,25 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>318.4909684781771</v>
+        <v>712.793229396055</v>
       </c>
       <c r="C7" t="n">
-        <v>204.0596212327002</v>
+        <v>712.793229396055</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>562.6765899837193</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>562.6765899837193</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>562.6765899837193</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X7" t="n">
-        <v>500.1394333084169</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y7" t="n">
-        <v>500.1394333084169</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>990.5839652830418</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="C8" t="n">
-        <v>990.5839652830418</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="D8" t="n">
-        <v>632.3182666762914</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E8" t="n">
-        <v>632.3182666762914</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F8" t="n">
-        <v>625.3727659270879</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
         <v>207.4089578252748</v>
@@ -4802,7 +4804,7 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733127</v>
@@ -4829,25 +4831,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834948</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>1993.54646147304</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V8" t="n">
-        <v>1733.491952528968</v>
+        <v>2481.073100146768</v>
       </c>
       <c r="W8" t="n">
-        <v>1380.723297258854</v>
+        <v>2481.073100146768</v>
       </c>
       <c r="X8" t="n">
-        <v>1380.723297258854</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="Y8" t="n">
-        <v>990.5839652830418</v>
+        <v>2107.607341885688</v>
       </c>
     </row>
     <row r="9">
@@ -4857,19 +4859,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
         <v>221.4284102424006</v>
@@ -4887,10 +4889,10 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598706</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417901</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4902,22 +4904,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4936,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>698.7120650600564</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="C10" t="n">
-        <v>529.7758821321495</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="D10" t="n">
-        <v>485.0749338020197</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="E10" t="n">
-        <v>337.1618402196266</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="F10" t="n">
-        <v>190.2718927217162</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="G10" t="n">
-        <v>190.2718927217162</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="H10" t="n">
-        <v>190.2718927217162</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4966,46 +4968,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600564</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600564</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600564</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="U10" t="n">
-        <v>698.7120650600564</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="V10" t="n">
-        <v>698.7120650600564</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="W10" t="n">
-        <v>698.7120650600564</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="X10" t="n">
-        <v>698.7120650600564</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="Y10" t="n">
-        <v>698.7120650600564</v>
+        <v>393.6767897220517</v>
       </c>
     </row>
     <row r="11">
@@ -5036,7 +5038,7 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
         <v>365.8813331823785</v>
@@ -5045,25 +5047,25 @@
         <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
         <v>4726.561275231264</v>
@@ -5075,7 +5077,7 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851616</v>
@@ -5115,25 +5117,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="L12" t="n">
-        <v>510.3034215191125</v>
+        <v>877.4353633695368</v>
       </c>
       <c r="M12" t="n">
-        <v>1275.299095712311</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N12" t="n">
-        <v>2079.710673976462</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O12" t="n">
-        <v>2328.464088060424</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P12" t="n">
         <v>2328.464088060424</v>
@@ -5173,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>972.2646934632138</v>
+        <v>972.2646934632137</v>
       </c>
       <c r="C13" t="n">
-        <v>972.2646934632138</v>
+        <v>972.2646934632137</v>
       </c>
       <c r="D13" t="n">
-        <v>822.148054050878</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="E13" t="n">
-        <v>674.2349604684849</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F13" t="n">
-        <v>527.3450129705745</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G13" t="n">
         <v>359.1696912903951</v>
@@ -5194,19 +5196,19 @@
         <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5215,34 +5217,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1381.902709191471</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>1381.902709191471</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U13" t="n">
-        <v>1381.902709191471</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V13" t="n">
-        <v>1381.902709191471</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="W13" t="n">
-        <v>1381.902709191471</v>
+        <v>1009.579090436494</v>
       </c>
       <c r="X13" t="n">
-        <v>1153.913158293454</v>
+        <v>1009.579090436494</v>
       </c>
       <c r="Y13" t="n">
-        <v>1153.913158293454</v>
+        <v>972.2646934632137</v>
       </c>
     </row>
     <row r="14">
@@ -5252,34 +5254,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382245</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J14" t="n">
         <v>365.8813331823786</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5294,34 +5296,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5343,40 +5345,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F15" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G15" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H15" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K15" t="n">
-        <v>501.9619072035816</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L15" t="n">
-        <v>1115.85897696047</v>
+        <v>921.1936903636248</v>
       </c>
       <c r="M15" t="n">
-        <v>1423.179110240432</v>
+        <v>1689.561836756086</v>
       </c>
       <c r="N15" t="n">
-        <v>1423.179110240432</v>
+        <v>2019.424464420119</v>
       </c>
       <c r="O15" t="n">
-        <v>2092.642871543091</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="P15" t="n">
-        <v>2612.943493278838</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5410,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>493.3586382081043</v>
+        <v>454.2145238948139</v>
       </c>
       <c r="C16" t="n">
-        <v>493.3586382081043</v>
+        <v>285.278340966907</v>
       </c>
       <c r="D16" t="n">
-        <v>493.3586382081043</v>
+        <v>135.1617015545712</v>
       </c>
       <c r="E16" t="n">
-        <v>412.2823606383756</v>
+        <v>135.1617015545712</v>
       </c>
       <c r="F16" t="n">
-        <v>265.3924131404652</v>
+        <v>135.1617015545712</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>135.1617015545712</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>135.1617015545712</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5479,7 +5481,7 @@
         <v>675.007103038344</v>
       </c>
       <c r="Y16" t="n">
-        <v>675.007103038344</v>
+        <v>454.2145238948139</v>
       </c>
     </row>
     <row r="17">
@@ -5492,7 +5494,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
         <v>1701.09316900344</v>
@@ -5501,31 +5503,31 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
@@ -5546,16 +5548,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
         <v>2814.921224614724</v>
@@ -5592,22 +5594,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277033</v>
+        <v>388.8958536704856</v>
       </c>
       <c r="L18" t="n">
-        <v>534.5429807341673</v>
+        <v>629.3975440735812</v>
       </c>
       <c r="M18" t="n">
-        <v>1302.911127126629</v>
+        <v>629.3975440735812</v>
       </c>
       <c r="N18" t="n">
-        <v>2107.322705390779</v>
+        <v>1433.809122337732</v>
       </c>
       <c r="O18" t="n">
-        <v>2418.551024593929</v>
+        <v>2103.272883640391</v>
       </c>
       <c r="P18" t="n">
         <v>2623.573505376138</v>
@@ -5647,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>711.072954880832</v>
+        <v>755.183133481126</v>
       </c>
       <c r="C19" t="n">
-        <v>542.1367719529251</v>
+        <v>710.3120936331045</v>
       </c>
       <c r="D19" t="n">
-        <v>392.0201325405893</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E19" t="n">
-        <v>244.1070389581962</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G19" t="n">
         <v>97.21709146028584</v>
@@ -5698,25 +5700,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U19" t="n">
-        <v>1255.17461312368</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V19" t="n">
-        <v>1000.490124917793</v>
+        <v>755.183133481126</v>
       </c>
       <c r="W19" t="n">
-        <v>711.072954880832</v>
+        <v>755.183133481126</v>
       </c>
       <c r="X19" t="n">
-        <v>711.072954880832</v>
+        <v>755.183133481126</v>
       </c>
       <c r="Y19" t="n">
-        <v>711.072954880832</v>
+        <v>755.183133481126</v>
       </c>
     </row>
     <row r="20">
@@ -5747,13 +5749,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5762,31 +5764,31 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
@@ -5826,28 +5828,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571608</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636247</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M21" t="n">
-        <v>1093.316482576399</v>
+        <v>1427.741252113634</v>
       </c>
       <c r="N21" t="n">
-        <v>1423.179110240432</v>
+        <v>2232.152830377785</v>
       </c>
       <c r="O21" t="n">
-        <v>2092.642871543091</v>
+        <v>2232.152830377785</v>
       </c>
       <c r="P21" t="n">
-        <v>2612.943493278838</v>
+        <v>2437.175311159994</v>
       </c>
       <c r="Q21" t="n">
         <v>2612.943493278838</v>
@@ -5884,46 +5886,46 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>761.0055017299088</v>
+        <v>420.3226148324574</v>
       </c>
       <c r="C22" t="n">
-        <v>713.8401545872508</v>
+        <v>420.3226148324574</v>
       </c>
       <c r="D22" t="n">
-        <v>563.7235151749151</v>
+        <v>420.3226148324574</v>
       </c>
       <c r="E22" t="n">
-        <v>415.8104215925219</v>
+        <v>420.3226148324574</v>
       </c>
       <c r="F22" t="n">
-        <v>415.8104215925219</v>
+        <v>420.3226148324574</v>
       </c>
       <c r="G22" t="n">
-        <v>247.6350999123425</v>
+        <v>252.147293152278</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028583</v>
+        <v>101.7292847002213</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799362</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
         <v>1460.082827585746</v>
@@ -5932,28 +5934,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T22" t="n">
-        <v>1498.916270557902</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U22" t="n">
-        <v>1209.787631771456</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="V22" t="n">
-        <v>1209.787631771456</v>
+        <v>420.3226148324574</v>
       </c>
       <c r="W22" t="n">
-        <v>1209.787631771456</v>
+        <v>420.3226148324574</v>
       </c>
       <c r="X22" t="n">
-        <v>981.7980808734389</v>
+        <v>420.3226148324574</v>
       </c>
       <c r="Y22" t="n">
-        <v>761.0055017299088</v>
+        <v>420.3226148324574</v>
       </c>
     </row>
     <row r="23">
@@ -5966,67 +5968,67 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
         <v>3205.060556590537</v>
@@ -6063,28 +6065,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
-        <v>287.7778528277032</v>
+        <v>264.0657286834809</v>
       </c>
       <c r="L24" t="n">
-        <v>534.5429807341671</v>
+        <v>877.9627984403695</v>
       </c>
       <c r="M24" t="n">
-        <v>1302.911127126628</v>
+        <v>1646.330944832831</v>
       </c>
       <c r="N24" t="n">
-        <v>2051.878056918009</v>
+        <v>1990.851600470449</v>
       </c>
       <c r="O24" t="n">
-        <v>2331.418122136706</v>
+        <v>2440.930027762787</v>
       </c>
       <c r="P24" t="n">
-        <v>2536.440602918915</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>4094.296631519486</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>3925.360448591579</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>3775.243809179244</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>3627.33071559685</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>3627.33071559685</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>3459.155393916671</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>3459.155393916671</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>3459.155393916671</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>3471.538086380581</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>3621.723490625192</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>3869.435535636322</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>4141.002278403505</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
-        <v>4411.546387431055</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>4645.421365436452</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>4822.021130042135</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>4860.854573014291</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>4749.779469576117</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>4749.779469576117</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>4525.994054365623</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U25" t="n">
-        <v>4525.994054365623</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V25" t="n">
-        <v>4525.994054365623</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W25" t="n">
-        <v>4275.945096349726</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>4275.945096349726</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y25" t="n">
-        <v>4275.945096349726</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6212,7 +6214,7 @@
         <v>1315.304916405195</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155874</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G26" t="n">
         <v>488.1932370805469</v>
@@ -6224,19 +6226,19 @@
         <v>97.21709146028583</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690732</v>
       </c>
       <c r="C27" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409605</v>
       </c>
       <c r="D27" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748354</v>
       </c>
       <c r="E27" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742898</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769783</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373968</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805656</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028583</v>
+        <v>2334.49815909844</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126481</v>
+        <v>2334.49815909844</v>
       </c>
       <c r="K27" t="n">
-        <v>263.5382936126481</v>
+        <v>2745.388427942953</v>
       </c>
       <c r="L27" t="n">
-        <v>877.4353633695368</v>
+        <v>3359.285497699841</v>
       </c>
       <c r="M27" t="n">
-        <v>1124.115218311523</v>
+        <v>3666.605630979803</v>
       </c>
       <c r="N27" t="n">
-        <v>1453.977845975556</v>
+        <v>4191.390811711632</v>
       </c>
       <c r="O27" t="n">
-        <v>2123.441607278215</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="R27" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S27" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098066</v>
       </c>
       <c r="T27" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021844</v>
       </c>
       <c r="U27" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641231</v>
       </c>
       <c r="V27" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409488</v>
       </c>
       <c r="W27" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681287</v>
       </c>
       <c r="X27" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475754</v>
       </c>
       <c r="Y27" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.9276637108</v>
       </c>
     </row>
     <row r="28">
@@ -6358,16 +6360,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>563.1598612984388</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="C28" t="n">
-        <v>394.223678370532</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D28" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E28" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F28" t="n">
         <v>97.21709146028583</v>
@@ -6385,49 +6387,49 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.48306298006</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585743</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557899</v>
       </c>
       <c r="R28" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557899</v>
       </c>
       <c r="S28" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557899</v>
       </c>
       <c r="T28" t="n">
-        <v>1301.359161376947</v>
+        <v>1308.553578799928</v>
       </c>
       <c r="U28" t="n">
-        <v>1301.359161376947</v>
+        <v>1019.424940013486</v>
       </c>
       <c r="V28" t="n">
-        <v>1301.359161376947</v>
+        <v>764.7404518075996</v>
       </c>
       <c r="W28" t="n">
-        <v>1011.941991339986</v>
+        <v>475.3232817706389</v>
       </c>
       <c r="X28" t="n">
-        <v>783.952440441969</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="Y28" t="n">
-        <v>563.1598612984388</v>
+        <v>247.3337308726216</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822461</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K29" t="n">
-        <v>889.284191751408</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643322</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899125</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207828</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231261</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141866</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465299</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851614</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590534</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614723</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6537,31 +6539,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>549.5984374701559</v>
+        <v>388.8958536704856</v>
       </c>
       <c r="L30" t="n">
-        <v>549.5984374701559</v>
+        <v>1002.792923427374</v>
       </c>
       <c r="M30" t="n">
-        <v>1317.966583862617</v>
+        <v>1440.604255405482</v>
       </c>
       <c r="N30" t="n">
-        <v>1833.271529962218</v>
+        <v>1785.124911043099</v>
       </c>
       <c r="O30" t="n">
-        <v>2112.811595180915</v>
+        <v>2033.878325127062</v>
       </c>
       <c r="P30" t="n">
-        <v>2317.834075963124</v>
+        <v>2554.178946862809</v>
       </c>
       <c r="Q30" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,46 +6597,46 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>972.2646934632137</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C31" t="n">
-        <v>972.2646934632137</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D31" t="n">
-        <v>822.1480540508779</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E31" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F31" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G31" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799362</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O31" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
         <v>1460.082827585746</v>
@@ -6646,25 +6648,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1298.996260473454</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T31" t="n">
-        <v>1298.996260473454</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U31" t="n">
-        <v>1298.996260473454</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V31" t="n">
-        <v>1298.996260473454</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W31" t="n">
-        <v>1009.579090436494</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X31" t="n">
-        <v>972.2646934632137</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y31" t="n">
-        <v>972.2646934632137</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="32">
@@ -6695,49 +6697,49 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643322</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899125</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207828</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231261</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V32" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X32" t="n">
         <v>3205.060556590537</v>
@@ -6765,40 +6767,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>97.21709146028581</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>246.2867756623455</v>
+        <v>395.9961833785278</v>
       </c>
       <c r="L33" t="n">
-        <v>493.0519035688095</v>
+        <v>1009.893253135416</v>
       </c>
       <c r="M33" t="n">
-        <v>1261.420049961271</v>
+        <v>1778.261399527878</v>
       </c>
       <c r="N33" t="n">
-        <v>1591.282677625303</v>
+        <v>2122.782055165496</v>
       </c>
       <c r="O33" t="n">
-        <v>2260.746438927963</v>
+        <v>2371.535469249458</v>
       </c>
       <c r="P33" t="n">
-        <v>2317.834075963124</v>
+        <v>2554.178946862809</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>527.8045051785809</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C34" t="n">
-        <v>358.8683222506741</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D34" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E34" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F34" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G34" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H34" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>109.5997839241956</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799362</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471178</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N34" t="n">
-        <v>1049.608084974665</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>1283.483062980062</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585745</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557901</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557901</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1498.916270557901</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T34" t="n">
-        <v>1498.916270557901</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U34" t="n">
-        <v>1447.652270087329</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V34" t="n">
-        <v>1447.652270087329</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W34" t="n">
-        <v>1158.235100050368</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X34" t="n">
-        <v>930.2455491523508</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y34" t="n">
-        <v>709.4529700088207</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550601</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610189</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405194</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.319011615587</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643322</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899125</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207828</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231262</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141866</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465299</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
         <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851614</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590534</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614723</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7002,37 +7004,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G36" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>388.8958536704855</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>1002.792923427374</v>
+        <v>1188.130761344647</v>
       </c>
       <c r="M36" t="n">
-        <v>1346.921040211881</v>
+        <v>1188.130761344647</v>
       </c>
       <c r="N36" t="n">
-        <v>1691.441695849499</v>
+        <v>1517.99338900868</v>
       </c>
       <c r="O36" t="n">
-        <v>2360.905457152158</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P36" t="n">
-        <v>2543.548934765509</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q36" t="n">
         <v>2612.943493278838</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>564.1830073829173</v>
+        <v>3778.208216256917</v>
       </c>
       <c r="C37" t="n">
-        <v>395.2468244550147</v>
+        <v>3609.27203332901</v>
       </c>
       <c r="D37" t="n">
-        <v>245.1301850426789</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028581</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028581</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028581</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028581</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028581</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="J37" t="n">
-        <v>109.5997839241956</v>
+        <v>3471.538086380584</v>
       </c>
       <c r="K37" t="n">
-        <v>259.7851881688071</v>
+        <v>3621.723490625196</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799362</v>
+        <v>3869.435535636325</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471189</v>
+        <v>4141.002278403508</v>
       </c>
       <c r="N37" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O37" t="n">
-        <v>1283.483062980063</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R37" t="n">
-        <v>1387.841167119728</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="S37" t="n">
-        <v>1387.841167119728</v>
+        <v>4549.85945949167</v>
       </c>
       <c r="T37" t="n">
-        <v>1387.841167119728</v>
+        <v>4549.85945949167</v>
       </c>
       <c r="U37" t="n">
-        <v>1098.712528333286</v>
+        <v>4260.730820705228</v>
       </c>
       <c r="V37" t="n">
-        <v>1098.712528333286</v>
+        <v>4260.730820705228</v>
       </c>
       <c r="W37" t="n">
-        <v>966.6240513566871</v>
+        <v>4260.730820705228</v>
       </c>
       <c r="X37" t="n">
-        <v>966.6240513566871</v>
+        <v>4180.649260230687</v>
       </c>
       <c r="Y37" t="n">
-        <v>745.831472213157</v>
+        <v>3959.856681087157</v>
       </c>
     </row>
     <row r="38">
@@ -7148,37 +7150,37 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155889</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823799</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514094</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
@@ -7205,19 +7207,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7227,16 +7229,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>987.4312590525784</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C39" t="n">
-        <v>812.9782297714514</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D39" t="n">
-        <v>664.0438201102002</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E39" t="n">
-        <v>504.8063651047446</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
         <v>358.2718071316295</v>
@@ -7248,28 +7250,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571608</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>1288.325632214049</v>
+        <v>1014.264061581379</v>
       </c>
       <c r="M39" t="n">
-        <v>1528.623401105981</v>
+        <v>1334.599381111081</v>
       </c>
       <c r="N39" t="n">
-        <v>1528.623401105981</v>
+        <v>2139.010959375231</v>
       </c>
       <c r="O39" t="n">
-        <v>1808.163466324677</v>
+        <v>2418.551024593929</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7287,7 +7289,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V39" t="n">
-        <v>1825.495751771335</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W39" t="n">
         <v>1571.258395043133</v>
@@ -7306,46 +7308,46 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>392.2530740188873</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C40" t="n">
-        <v>392.2530740188873</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
-        <v>392.2530740188873</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
-        <v>392.2530740188873</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O40" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
         <v>1460.082827585746</v>
@@ -7354,28 +7356,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>1164.055751909233</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U40" t="n">
-        <v>874.9271131227915</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V40" t="n">
-        <v>620.2426249169047</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W40" t="n">
-        <v>620.2426249169047</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X40" t="n">
-        <v>392.2530740188873</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="Y40" t="n">
-        <v>392.2530740188873</v>
+        <v>216.9038434870658</v>
       </c>
     </row>
     <row r="41">
@@ -7385,7 +7387,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
         <v>2059.358867610191</v>
@@ -7394,49 +7396,49 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155889</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
         <v>365.8813331823786</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643322</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
@@ -7445,16 +7447,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="42">
@@ -7464,16 +7466,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>987.4312590525784</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C42" t="n">
-        <v>812.9782297714514</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D42" t="n">
-        <v>664.0438201102002</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E42" t="n">
-        <v>504.8063651047446</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
         <v>358.2718071316295</v>
@@ -7485,28 +7487,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>263.5382936126482</v>
+        <v>648.0342195052083</v>
       </c>
       <c r="L42" t="n">
-        <v>510.3034215191121</v>
+        <v>1261.931289262097</v>
       </c>
       <c r="M42" t="n">
-        <v>817.6235547990736</v>
+        <v>2030.299435654558</v>
       </c>
       <c r="N42" t="n">
-        <v>1147.486182463106</v>
+        <v>2374.820091292176</v>
       </c>
       <c r="O42" t="n">
-        <v>1808.163466324677</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7524,7 +7526,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V42" t="n">
-        <v>1825.495751771335</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W42" t="n">
         <v>1571.258395043133</v>
@@ -7543,46 +7545,46 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>822.148054050878</v>
+        <v>100.8871334832924</v>
       </c>
       <c r="C43" t="n">
-        <v>822.148054050878</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>822.148054050878</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>674.2349604684849</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>527.3450129705745</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K43" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O43" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
         <v>1460.082827585746</v>
@@ -7597,22 +7599,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U43" t="n">
-        <v>1498.916270557902</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V43" t="n">
-        <v>1244.231782352015</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W43" t="n">
-        <v>1244.231782352015</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="X43" t="n">
-        <v>1224.589098024648</v>
+        <v>503.3281774570622</v>
       </c>
       <c r="Y43" t="n">
-        <v>1003.796518881118</v>
+        <v>282.5355983135321</v>
       </c>
     </row>
     <row r="44">
@@ -7622,7 +7624,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
         <v>2059.358867610191</v>
@@ -7634,64 +7636,64 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155889</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643322</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899125</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3224.712326690734</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C45" t="n">
-        <v>3050.259297409607</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D45" t="n">
-        <v>2901.324887748356</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E45" t="n">
-        <v>2742.0874327429</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>2595.552874769785</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G45" t="n">
-        <v>2458.62619637397</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H45" t="n">
-        <v>2362.681322805658</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>2334.498159098442</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>2334.498159098442</v>
+        <v>243.0706902632331</v>
       </c>
       <c r="K45" t="n">
-        <v>2459.855719156279</v>
+        <v>653.9609591077458</v>
       </c>
       <c r="L45" t="n">
-        <v>2787.283398147038</v>
+        <v>883.924064976095</v>
       </c>
       <c r="M45" t="n">
-        <v>3555.651544539499</v>
+        <v>1204.259384505797</v>
       </c>
       <c r="N45" t="n">
-        <v>4360.06312280365</v>
+        <v>1548.780040143415</v>
       </c>
       <c r="O45" t="n">
-        <v>4608.816536887613</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P45" t="n">
-        <v>4791.460014500964</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q45" t="n">
-        <v>4860.854573014293</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S45" t="n">
-        <v>4720.948468098068</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T45" t="n">
-        <v>4526.033852021846</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U45" t="n">
-        <v>4297.928927641233</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V45" t="n">
-        <v>4062.77681940949</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W45" t="n">
-        <v>3808.539462681289</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X45" t="n">
-        <v>3600.687962475756</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y45" t="n">
-        <v>3392.927663710802</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="46">
@@ -7780,46 +7782,46 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>102.8359039819267</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>102.8359039819267</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>102.8359039819267</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K46" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O46" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
         <v>1460.082827585746</v>
@@ -7828,28 +7830,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>1164.055751909233</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U46" t="n">
-        <v>874.9271131227915</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V46" t="n">
-        <v>620.2426249169047</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W46" t="n">
-        <v>330.8254548799441</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X46" t="n">
-        <v>102.8359039819267</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y46" t="n">
-        <v>102.8359039819267</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8313,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8535,7 +8537,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>251.4045252050814</v>
+        <v>251.4045252050821</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
@@ -8772,25 +8774,25 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>14.14674423479693</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445214</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9009,22 +9011,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>29.79753375920029</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9240,31 +9242,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
-        <v>32.00833735803241</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9480,25 +9482,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>89.53058551678842</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9717,10 +9719,10 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
         <v>465.7050637499999</v>
@@ -9729,16 +9731,16 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>34.7842838544522</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9951,10 +9953,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -9963,7 +9965,7 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>196.8914677452481</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
@@ -9972,10 +9974,10 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>34.7842838544522</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10188,13 +10190,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
         <v>465.7050637499999</v>
@@ -10203,16 +10205,16 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10425,31 +10427,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10604,7 +10606,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599049</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10668,16 +10670,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>269.6334050313357</v>
       </c>
       <c r="M36" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
@@ -10905,25 +10907,25 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>94.01047597752921</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11139,28 +11141,28 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>237.8042845358588</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
-        <v>384.9870895382568</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11373,7 +11375,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>105.4166885228179</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -23413,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23464,7 +23466,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>82.07738423083559</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
@@ -23476,13 +23478,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>181.6434003485473</v>
       </c>
     </row>
     <row r="14">
@@ -23513,7 +23515,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1.165290086646564e-12</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23650,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>66.16844785253782</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>72.85408147092944</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23719,7 +23721,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23890,7 +23892,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>122.8244916490866</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23902,7 +23904,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
@@ -23938,19 +23940,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>44.93311153869678</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -24127,13 +24129,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>120.5531274273964</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24145,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>105.9521741567359</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24361,22 +24363,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
@@ -24409,25 +24411,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>38.97452990085262</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24601,7 +24603,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24610,7 +24612,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
@@ -24646,19 +24648,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>135.9303753730363</v>
+        <v>33.08849621799854</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24667,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24841,22 +24843,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,22 +24888,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>82.39383318338567</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>188.7684023854899</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -25072,13 +25074,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25093,7 +25095,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25126,13 +25128,13 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>235.4859919327111</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25141,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>103.0576765518772</v>
       </c>
     </row>
     <row r="35">
@@ -25318,7 +25320,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25360,7 +25362,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
@@ -25372,10 +25374,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>155.7554061297584</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>146.4289105192414</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25546,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>61.34209567542518</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25558,10 +25560,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>19.82899375329337</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
         <v>148.9138283675361</v>
@@ -25594,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25609,13 +25611,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25786,25 +25788,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>163.6134794958514</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25837,10 +25839,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25849,7 +25851,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>206.2633979049435</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26029,7 +26031,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>140.8713382501447</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26068,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>840712.4784360745</v>
+        <v>840712.4784360743</v>
       </c>
     </row>
     <row r="10">
@@ -26311,16 +26313,16 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>554203.1946583914</v>
+      </c>
+      <c r="C2" t="n">
         <v>554203.1946583912</v>
       </c>
-      <c r="C2" t="n">
-        <v>554203.1946583913</v>
-      </c>
       <c r="D2" t="n">
-        <v>554203.1946583913</v>
+        <v>554203.1946583911</v>
       </c>
       <c r="E2" t="n">
-        <v>527889.230645907</v>
+        <v>527889.2306459069</v>
       </c>
       <c r="F2" t="n">
         <v>527889.230645907</v>
@@ -26329,31 +26331,31 @@
         <v>527889.2306459071</v>
       </c>
       <c r="H2" t="n">
-        <v>527889.2306459069</v>
+        <v>527889.2306459073</v>
       </c>
       <c r="I2" t="n">
         <v>527889.230645907</v>
       </c>
       <c r="J2" t="n">
-        <v>527889.2306459069</v>
+        <v>527889.230645907</v>
       </c>
       <c r="K2" t="n">
-        <v>527889.2306459068</v>
+        <v>527889.2306459071</v>
       </c>
       <c r="L2" t="n">
-        <v>527889.2306459069</v>
+        <v>527889.2306459072</v>
       </c>
       <c r="M2" t="n">
-        <v>527889.2306459066</v>
+        <v>527889.2306459071</v>
       </c>
       <c r="N2" t="n">
         <v>527889.2306459071</v>
       </c>
       <c r="O2" t="n">
+        <v>527889.2306459072</v>
+      </c>
+      <c r="P2" t="n">
         <v>527889.2306459069</v>
-      </c>
-      <c r="P2" t="n">
-        <v>527889.2306459073</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768965</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1.170374162029475e-10</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338373</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26427,28 +26429,28 @@
         <v>787.7936905758695</v>
       </c>
       <c r="F4" t="n">
+        <v>787.7936905758695</v>
+      </c>
+      <c r="G4" t="n">
+        <v>787.7936905758694</v>
+      </c>
+      <c r="H4" t="n">
+        <v>787.7936905758694</v>
+      </c>
+      <c r="I4" t="n">
+        <v>787.7936905758695</v>
+      </c>
+      <c r="J4" t="n">
         <v>787.7936905758693</v>
       </c>
-      <c r="G4" t="n">
+      <c r="K4" t="n">
         <v>787.7936905758695</v>
       </c>
-      <c r="H4" t="n">
-        <v>787.7936905758692</v>
-      </c>
-      <c r="I4" t="n">
-        <v>787.7936905759724</v>
-      </c>
-      <c r="J4" t="n">
-        <v>787.7936905759724</v>
-      </c>
-      <c r="K4" t="n">
-        <v>787.793690575951</v>
-      </c>
       <c r="L4" t="n">
-        <v>787.7936905759722</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="M4" t="n">
-        <v>787.7936905759724</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="N4" t="n">
         <v>787.7936905758694</v>
@@ -26476,40 +26478,40 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871661</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871659</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871659</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-257682.9018001817</v>
+        <v>-257682.9018001815</v>
       </c>
       <c r="C6" t="n">
         <v>332284.9774143627</v>
       </c>
       <c r="D6" t="n">
-        <v>332284.9774143628</v>
+        <v>332284.9774143626</v>
       </c>
       <c r="E6" t="n">
-        <v>-90045.92547028197</v>
+        <v>-90045.92547028176</v>
       </c>
       <c r="F6" t="n">
-        <v>435114.1110066149</v>
+        <v>435114.1110066145</v>
       </c>
       <c r="G6" t="n">
         <v>435114.1110066146</v>
       </c>
       <c r="H6" t="n">
-        <v>435114.1110066146</v>
+        <v>435114.1110066149</v>
       </c>
       <c r="I6" t="n">
-        <v>435114.1110066144</v>
+        <v>435114.1110066145</v>
       </c>
       <c r="J6" t="n">
-        <v>258690.8918140213</v>
+        <v>258690.8918140216</v>
       </c>
       <c r="K6" t="n">
-        <v>435114.1110066142</v>
+        <v>435114.1110066145</v>
       </c>
       <c r="L6" t="n">
-        <v>435114.1110066144</v>
+        <v>435114.1110066148</v>
       </c>
       <c r="M6" t="n">
-        <v>300313.0957727768</v>
+        <v>300313.0957727776</v>
       </c>
       <c r="N6" t="n">
         <v>435114.1110066146</v>
       </c>
       <c r="O6" t="n">
+        <v>435114.1110066148</v>
+      </c>
+      <c r="P6" t="n">
         <v>435114.1110066144</v>
-      </c>
-      <c r="P6" t="n">
-        <v>435114.1110066149</v>
       </c>
     </row>
   </sheetData>
@@ -26738,13 +26740,13 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
+        <v>377.7436642170867</v>
+      </c>
+      <c r="D3" t="n">
         <v>377.7436642170866</v>
       </c>
-      <c r="D3" t="n">
-        <v>377.7436642170867</v>
-      </c>
       <c r="E3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541002</v>
@@ -26753,31 +26755,31 @@
         <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26796,7 +26798,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="F4" t="n">
         <v>1215.213643253573</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370138</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990179</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990179</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990179</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27397,7 +27399,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>124.1457077469499</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,22 +27432,22 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>362.6641992353398</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27579,7 +27581,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801579</v>
@@ -27588,13 +27590,13 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>125.3743547112085</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>89.80115265030477</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27603,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>88.88783364931584</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9710716513183</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27676,10 +27678,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27771,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>164.6495829196617</v>
       </c>
       <c r="C7" t="n">
-        <v>53.95978732560566</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27786,16 +27788,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,7 +27821,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27837,7 +27839,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27859,16 +27861,16 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>70.29829461550315</v>
+        <v>168.3154300822063</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,28 +28013,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>104.3615341713839</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,10 +28058,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>56.82580834555245</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
@@ -29287,7 +29289,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29469,7 +29471,7 @@
         <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>-2.345015412723166e-12</v>
       </c>
       <c r="P28" t="n">
         <v>0</v>
@@ -31282,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>35.71704454958058</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31519,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,46 +31831,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>449.1518733974718</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31908,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32078,7 +32080,7 @@
         <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
-        <v>114.2081348819152</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
         <v>387.8120847358985</v>
@@ -32087,19 +32089,19 @@
         <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
         <v>33.17612723677464</v>
@@ -32233,7 +32235,7 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32315,13 +32317,13 @@
         <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>10.6450348835823</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
         <v>464.5362854813461</v>
@@ -32336,7 +32338,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
         <v>33.17612723677464</v>
@@ -32461,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444943</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
         <v>283.3273112961203</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304438</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565517</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927184</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540884</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104647</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
-        <v>14.61306122562943</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,46 +32542,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127062</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622981</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358983</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>315.9954401975482</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.536285481346</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855524</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
-        <v>110.8952201095117</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677463</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361487</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32625,43 +32627,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298628</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K22" t="n">
-        <v>173.9719203557933</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L22" t="n">
-        <v>222.6241616196123</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171318</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P22" t="n">
-        <v>181.1050413469072</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337667</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892243</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351812</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104647</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,46 +32779,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>408.5315900543056</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855525</v>
+        <v>203.3585992003799</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458548</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361488</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32862,7 +32864,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32877,10 +32879,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P25" t="n">
         <v>181.1050413469073</v>
@@ -32889,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104647</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,46 +33016,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>391.3056045704894</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458548</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361488</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33099,7 +33101,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33114,10 +33116,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P28" t="n">
         <v>181.1050413469073</v>
@@ -33126,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444943</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L29" t="n">
-        <v>526.7962671304438</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565517</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927184</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540884</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R29" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104647</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
-        <v>14.61306122562943</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,46 +33253,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127062</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622981</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724844</v>
+        <v>118.6626388367733</v>
       </c>
       <c r="N30" t="n">
-        <v>172.5093843050333</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855524</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>110.8952201095117</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677463</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361487</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33336,43 +33338,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.03122946298628</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K31" t="n">
-        <v>173.9719203557933</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L31" t="n">
-        <v>222.6241616196123</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.7259642171318</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P31" t="n">
-        <v>181.1050413469072</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337667</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892243</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351812</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444943</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L32" t="n">
-        <v>526.7962671304438</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565517</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927184</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540884</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R32" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104647</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
-        <v>14.61306122562943</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U32" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,46 +33490,46 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127062</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622981</v>
+        <v>7.172050210143624</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358983</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724844</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.536285481346</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855524</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>191.6386872478268</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>110.8952201095117</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677463</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361487</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33573,43 +33575,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.03122946298628</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K34" t="n">
-        <v>173.9719203557933</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L34" t="n">
-        <v>222.6241616196123</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.7259642171318</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P34" t="n">
-        <v>181.1050413469072</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337667</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892243</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351812</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444943</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L35" t="n">
-        <v>526.7962671304438</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565517</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927184</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540884</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104647</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
-        <v>14.61306122562943</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,46 +33727,46 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127062</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358983</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>24.03312854020686</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855524</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R36" t="n">
-        <v>110.8952201095117</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677463</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361487</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33810,43 +33812,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.03122946298628</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K37" t="n">
-        <v>173.9719203557933</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L37" t="n">
-        <v>222.6241616196123</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.7259642171318</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P37" t="n">
-        <v>181.1050413469072</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337667</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892243</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351812</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444943</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961216</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L38" t="n">
-        <v>526.7962671304438</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565517</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927184</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540884</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104647</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
-        <v>14.61306122562943</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,46 +33964,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127062</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622981</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358983</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>384.8590530047773</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855524</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710956</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677463</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361487</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34047,43 +34049,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.03122946298628</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K40" t="n">
-        <v>173.9719203557933</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L40" t="n">
-        <v>222.6241616196123</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.7259642171318</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P40" t="n">
-        <v>181.1050413469072</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337667</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892243</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351812</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34123,46 +34125,46 @@
         <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444943</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
         <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L41" t="n">
-        <v>526.7962671304438</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565517</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927184</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540884</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130947015</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
-        <v>14.61306122562943</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U41" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34202,43 +34204,43 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127062</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
         <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358983</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724844</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.536285481346</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855524</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458548</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710956</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677463</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361487</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34284,43 +34286,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.03122946298628</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K43" t="n">
-        <v>173.9719203557933</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L43" t="n">
-        <v>222.6241616196123</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.7259642171318</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
         <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P43" t="n">
-        <v>181.1050413469072</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337667</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892243</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351812</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34360,46 +34362,46 @@
         <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444943</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
         <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L44" t="n">
-        <v>526.7962671304438</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565517</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927184</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540884</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647526</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
-        <v>14.61306122562943</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U44" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34439,43 +34441,43 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127062</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>98.44906376000995</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724844</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>464.536285481346</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677463</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361487</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34521,43 +34523,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.03122946298628</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K46" t="n">
-        <v>173.9719203557933</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L46" t="n">
-        <v>222.6241616196123</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.7259642171318</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
         <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P46" t="n">
-        <v>181.1050413469072</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337667</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892243</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351812</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34933,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35024,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>220.2054057751875</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>289.2671274730079</v>
+        <v>289.2671274730086</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35407,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560244</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
-        <v>772.7229032254534</v>
+        <v>324.5711212852631</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415666</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>251.2660748322851</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35726,28 +35728,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>240.8319329201348</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178376</v>
+        <v>312.1612360003084</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35881,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
         <v>528.689756130333</v>
@@ -35960,25 +35962,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>242.9310004071673</v>
       </c>
       <c r="M18" t="n">
-        <v>776.1294408004661</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>812.5369477415663</v>
       </c>
       <c r="O18" t="n">
-        <v>314.3720395991405</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36121,28 +36123,28 @@
         <v>271.3780219415078</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221115</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081116</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.154607095147</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109121</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349802</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,28 +36202,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005177</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>173.8614062755299</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980127</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O21" t="n">
-        <v>676.2260215178376</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714617</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>177.5436183018626</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686861</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556549</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.2256999718747</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349805</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490663</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879392</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560242</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M24" t="n">
-        <v>776.129440800466</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N24" t="n">
-        <v>756.5322523145259</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>454.624674032665</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315246</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.01303278507407</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056069</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349805</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
-        <v>249.1715706484711</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980127</v>
+        <v>530.086041143261</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178376</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315246</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515205991</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221115</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081116</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O29" t="n">
-        <v>713.154607095147</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109121</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349802</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490663</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005177</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
-        <v>776.129440800466</v>
+        <v>442.2336686647549</v>
       </c>
       <c r="N30" t="n">
-        <v>520.5100465652536</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O30" t="n">
-        <v>282.363702241108</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315245</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209231</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686861</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556549</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M31" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N31" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.2256999718747</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221115</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081116</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O32" t="n">
-        <v>713.154607095147</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109121</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349802</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879391</v>
+        <v>133.7958482483632</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560242</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M33" t="n">
-        <v>776.129440800466</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980127</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O33" t="n">
-        <v>676.2260215178376</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P33" t="n">
-        <v>57.66427983349657</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209231</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686861</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556549</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M34" t="n">
-        <v>274.3098411789713</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N34" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.2256999718747</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221115</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081116</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
-        <v>713.154607095147</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109121</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502051</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349802</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,28 +37387,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>126.6237980382196</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>620.0980502594833</v>
+        <v>518.89110998736</v>
       </c>
       <c r="M36" t="n">
-        <v>347.6041583681885</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>348.0006622602202</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>184.4883612256069</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q36" t="n">
-        <v>70.09551364982758</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686861</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556549</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M37" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N37" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.2256999718747</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415091</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221115</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081116</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
-        <v>713.154607095147</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109121</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349802</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,25 +37624,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005177</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>620.0980502594833</v>
+        <v>343.2681809335535</v>
       </c>
       <c r="M39" t="n">
-        <v>242.7250190827589</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O39" t="n">
-        <v>282.363702241108</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714617</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209231</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556549</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M40" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N40" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.2256999718747</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221115</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081116</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.154607095147</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109146</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349802</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,25 +37861,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>388.379723123798</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560242</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504661</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980127</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O42" t="n">
-        <v>667.3507917793648</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714617</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209231</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556549</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
         <v>151.7024285299105</v>
@@ -37944,7 +37946,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M43" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
         <v>273.2768778056036</v>
@@ -37956,7 +37958,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.2256999718747</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221115</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081116</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>713.154607095147</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109121</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502078</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349802</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38095,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>147.3268674777245</v>
       </c>
       <c r="K45" t="n">
-        <v>126.6237980382196</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>330.7350292835949</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
-        <v>776.129440800466</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415662</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O45" t="n">
         <v>251.2660748322851</v>
       </c>
       <c r="P45" t="n">
-        <v>184.4883612256069</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q45" t="n">
-        <v>70.09551364982758</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556549</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
         <v>151.7024285299105</v>
@@ -38181,7 +38183,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M46" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N46" t="n">
         <v>273.2768778056036</v>
@@ -38193,7 +38195,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.2256999718747</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_0_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_0_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2326744.248665422</v>
+        <v>2319727.23377371</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1128137.828979971</v>
+        <v>662230.1703019222</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.511665971</v>
+        <v>1169509.51166597</v>
       </c>
     </row>
     <row r="9">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>163.6272366922608</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -670,16 +670,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>27.78560849791136</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,25 +709,25 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -819,16 +819,16 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -876,16 +876,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>162.3364906735232</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>59.72683757586846</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -901,19 +901,19 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>240.9592984209434</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -946,25 +946,25 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>2.876643359807645</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1053,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>15.1823972622756</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1068,16 +1068,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1113,10 +1113,10 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>65.05884990877797</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,28 +1180,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481162</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>186.2507170030323</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>159.4368283879286</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1229,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250816</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229327</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,31 +1290,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>59.72683757586903</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,13 +1335,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>155.3197306044665</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1381,7 +1381,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417112</v>
       </c>
       <c r="G11" t="n">
         <v>411.9645167896915</v>
@@ -1435,7 +1435,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1533,22 +1533,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>139.1537278750036</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1584,19 +1584,19 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>36.94125300354747</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634797</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.7791350527396</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1764,13 +1764,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1779,13 +1779,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>36.28627157371903</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>37.56516399334255</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1818,19 +1818,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1855,7 +1855,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417112</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>411.9645167896915</v>
@@ -1900,7 +1900,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2004,16 +2004,16 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>44.42232944954128</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>88.40546239687016</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
@@ -2064,7 +2064,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2083,7 +2083,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2146,7 +2146,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2241,25 +2241,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>91.33209909790602</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>4.46707130753606</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
@@ -2304,10 +2304,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051985</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2487,7 +2487,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2526,13 +2526,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>139.1537278750038</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>256.3432811758636</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2569,13 +2569,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896903</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274137</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2721,13 +2721,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2766,16 +2766,16 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>188.4590648403907</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>123.0388562607472</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2797,7 +2797,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.6830416206836</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -3000,10 +3000,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>115.5269768002176</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750035</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3097,7 +3097,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.237938656054</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3240,22 +3240,22 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>70.78408973756098</v>
       </c>
       <c r="Y34" t="n">
-        <v>115.5269768002176</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3268,7 +3268,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710066</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3423,13 +3423,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3471,25 +3471,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>183.1796758467</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>79.2807448697958</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3660,10 +3660,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>118.4898845065121</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3675,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3717,7 +3717,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>109.7395205132413</v>
       </c>
     </row>
     <row r="41">
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3900,10 +3900,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>3.633341602776479</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3912,13 +3912,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>20.66693835622613</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4188,7 +4188,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>139.1537278750038</v>
+        <v>139.1537278750035</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
@@ -4306,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1238.153685885794</v>
+        <v>770.969123535386</v>
       </c>
       <c r="C2" t="n">
-        <v>1238.153685885794</v>
+        <v>402.0066065949742</v>
       </c>
       <c r="D2" t="n">
-        <v>1238.153685885794</v>
+        <v>402.0066065949742</v>
       </c>
       <c r="E2" t="n">
-        <v>1238.153685885794</v>
+        <v>402.0066065949742</v>
       </c>
       <c r="F2" t="n">
-        <v>827.1677810961862</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G2" t="n">
-        <v>409.2039729943731</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H2" t="n">
-        <v>82.00925303037593</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4357,25 +4357,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2388.358616186807</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2388.358616186807</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>2388.358616186807</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>2014.892857925727</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="Y2" t="n">
-        <v>1624.753525949915</v>
+        <v>936.2491605982757</v>
       </c>
     </row>
     <row r="3">
@@ -4400,10 +4400,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4412,22 +4412,22 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4464,16 +4464,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F4" t="n">
         <v>53.94298182036445</v>
@@ -4524,16 +4524,16 @@
         <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>564.1527310008552</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>274.7355609638946</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="X4" t="n">
-        <v>274.7355609638946</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>667.7988452409105</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1606.946621408918</v>
+        <v>586.5435612426379</v>
       </c>
       <c r="C5" t="n">
-        <v>1606.946621408918</v>
+        <v>586.5435612426379</v>
       </c>
       <c r="D5" t="n">
-        <v>1606.946621408918</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="E5" t="n">
-        <v>1363.553390680693</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
@@ -4567,7 +4567,7 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733127</v>
@@ -4594,25 +4594,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U5" t="n">
-        <v>1993.54646147304</v>
+        <v>2420.580034157336</v>
       </c>
       <c r="V5" t="n">
-        <v>1993.54646147304</v>
+        <v>2089.517146813766</v>
       </c>
       <c r="W5" t="n">
-        <v>1993.54646147304</v>
+        <v>1736.748491543651</v>
       </c>
       <c r="X5" t="n">
-        <v>1993.54646147304</v>
+        <v>1363.282733282571</v>
       </c>
       <c r="Y5" t="n">
-        <v>1993.54646147304</v>
+        <v>973.1434013067596</v>
       </c>
     </row>
     <row r="6">
@@ -4637,34 +4637,34 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>712.793229396055</v>
+        <v>372.9958041606071</v>
       </c>
       <c r="C7" t="n">
-        <v>712.793229396055</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D7" t="n">
-        <v>562.6765899837193</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>562.6765899837193</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>562.6765899837193</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>235.9284171545818</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4761,16 +4761,16 @@
         <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064344</v>
+        <v>662.4129741975678</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064344</v>
+        <v>372.9958041606071</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064344</v>
+        <v>372.9958041606071</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064344</v>
+        <v>372.9958041606071</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2107.607341885688</v>
+        <v>443.7744035713887</v>
       </c>
       <c r="C8" t="n">
-        <v>2107.607341885688</v>
+        <v>74.81188663097704</v>
       </c>
       <c r="D8" t="n">
-        <v>1749.341643278937</v>
+        <v>74.81188663097704</v>
       </c>
       <c r="E8" t="n">
-        <v>1363.553390680693</v>
+        <v>74.81188663097704</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>67.86638588177357</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533144</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.961649073313</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M8" t="n">
-        <v>1362.238747280443</v>
+        <v>1362.238747280444</v>
       </c>
       <c r="N8" t="n">
         <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018224</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548717</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862887</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2277.810876486087</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>2277.810876486087</v>
       </c>
       <c r="V8" t="n">
-        <v>2481.073100146768</v>
+        <v>1946.747989142516</v>
       </c>
       <c r="W8" t="n">
-        <v>2481.073100146768</v>
+        <v>1593.979333872402</v>
       </c>
       <c r="X8" t="n">
-        <v>2107.607341885688</v>
+        <v>1220.513575611322</v>
       </c>
       <c r="Y8" t="n">
-        <v>2107.607341885688</v>
+        <v>830.3742436355105</v>
       </c>
     </row>
     <row r="9">
@@ -4880,19 +4880,19 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.1903022614631</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598713</v>
+        <v>713.8062203571351</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>393.6767897220517</v>
+        <v>667.7988452409106</v>
       </c>
       <c r="C10" t="n">
-        <v>393.6767897220517</v>
+        <v>498.8626623130037</v>
       </c>
       <c r="D10" t="n">
-        <v>393.6767897220517</v>
+        <v>348.746022900668</v>
       </c>
       <c r="E10" t="n">
-        <v>393.6767897220517</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="G10" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="H10" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866326</v>
+        <v>110.2451748866327</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477912</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658212</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502504</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594906</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="R10" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="S10" t="n">
-        <v>393.6767897220517</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="T10" t="n">
-        <v>393.6767897220517</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="U10" t="n">
-        <v>393.6767897220517</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="V10" t="n">
-        <v>393.6767897220517</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="W10" t="n">
-        <v>393.6767897220517</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="X10" t="n">
-        <v>393.6767897220517</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="Y10" t="n">
-        <v>393.6767897220517</v>
+        <v>728.1289842064349</v>
       </c>
     </row>
     <row r="11">
@@ -5017,13 +5017,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
@@ -5041,7 +5041,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K11" t="n">
         <v>889.2841917514083</v>
@@ -5083,10 +5083,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5120,19 +5120,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K12" t="n">
-        <v>263.5382936126482</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L12" t="n">
-        <v>877.4353633695368</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M12" t="n">
-        <v>1198.760773441947</v>
+        <v>1138.699705022018</v>
       </c>
       <c r="N12" t="n">
-        <v>1528.62340110598</v>
+        <v>1138.699705022018</v>
       </c>
       <c r="O12" t="n">
         <v>1808.163466324677</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>972.2646934632137</v>
+        <v>237.776412546148</v>
       </c>
       <c r="C13" t="n">
-        <v>972.2646934632137</v>
+        <v>237.776412546148</v>
       </c>
       <c r="D13" t="n">
-        <v>822.1480540508779</v>
+        <v>237.776412546148</v>
       </c>
       <c r="E13" t="n">
-        <v>674.2349604684848</v>
+        <v>237.776412546148</v>
       </c>
       <c r="F13" t="n">
-        <v>527.3450129705744</v>
+        <v>237.776412546148</v>
       </c>
       <c r="G13" t="n">
-        <v>359.1696912903951</v>
+        <v>237.776412546148</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028584</v>
@@ -5232,19 +5232,19 @@
         <v>1298.996260473455</v>
       </c>
       <c r="U13" t="n">
-        <v>1298.996260473455</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V13" t="n">
-        <v>1298.996260473455</v>
+        <v>755.183133481126</v>
       </c>
       <c r="W13" t="n">
-        <v>1009.579090436494</v>
+        <v>465.7659634441654</v>
       </c>
       <c r="X13" t="n">
-        <v>1009.579090436494</v>
+        <v>237.776412546148</v>
       </c>
       <c r="Y13" t="n">
-        <v>972.2646934632137</v>
+        <v>237.776412546148</v>
       </c>
     </row>
     <row r="14">
@@ -5254,34 +5254,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805458</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.822278382245</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5299,10 +5299,10 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
         <v>4726.561275231263</v>
@@ -5345,34 +5345,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F15" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G15" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H15" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126481</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571608</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636248</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="M15" t="n">
-        <v>1689.561836756086</v>
+        <v>417.5524109899876</v>
       </c>
       <c r="N15" t="n">
-        <v>2019.424464420119</v>
+        <v>1138.699705022018</v>
       </c>
       <c r="O15" t="n">
-        <v>2328.464088060424</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P15" t="n">
         <v>2328.464088060424</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>454.2145238948139</v>
+        <v>302.8060739576059</v>
       </c>
       <c r="C16" t="n">
-        <v>285.278340966907</v>
+        <v>133.869891029699</v>
       </c>
       <c r="D16" t="n">
-        <v>135.1617015545712</v>
+        <v>133.869891029699</v>
       </c>
       <c r="E16" t="n">
-        <v>135.1617015545712</v>
+        <v>133.869891029699</v>
       </c>
       <c r="F16" t="n">
-        <v>135.1617015545712</v>
+        <v>133.869891029699</v>
       </c>
       <c r="G16" t="n">
-        <v>135.1617015545712</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>135.1617015545712</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5466,22 +5466,22 @@
         <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>964.1357418247858</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U16" t="n">
-        <v>675.007103038344</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="V16" t="n">
-        <v>675.007103038344</v>
+        <v>933.2366688293931</v>
       </c>
       <c r="W16" t="n">
-        <v>675.007103038344</v>
+        <v>933.2366688293931</v>
       </c>
       <c r="X16" t="n">
-        <v>675.007103038344</v>
+        <v>705.2471179313758</v>
       </c>
       <c r="Y16" t="n">
-        <v>454.2145238948139</v>
+        <v>484.4545387878456</v>
       </c>
     </row>
     <row r="17">
@@ -5491,13 +5491,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
@@ -5515,7 +5515,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K17" t="n">
         <v>889.2841917514082</v>
@@ -5551,16 +5551,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5594,16 +5594,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K18" t="n">
-        <v>388.8958536704856</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L18" t="n">
-        <v>629.3975440735812</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="M18" t="n">
-        <v>629.3975440735812</v>
+        <v>865.5852378527472</v>
       </c>
       <c r="N18" t="n">
         <v>1433.809122337732</v>
@@ -5649,16 +5649,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>755.183133481126</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="C19" t="n">
-        <v>710.3120936331045</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D19" t="n">
-        <v>560.1954542207687</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E19" t="n">
-        <v>412.2823606383756</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F19" t="n">
         <v>265.3924131404652</v>
@@ -5697,28 +5697,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T19" t="n">
-        <v>1298.996260473455</v>
+        <v>1098.622710169755</v>
       </c>
       <c r="U19" t="n">
-        <v>1009.867621687013</v>
+        <v>809.4940713833126</v>
       </c>
       <c r="V19" t="n">
-        <v>755.183133481126</v>
+        <v>554.8095831774258</v>
       </c>
       <c r="W19" t="n">
-        <v>755.183133481126</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="X19" t="n">
-        <v>755.183133481126</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="Y19" t="n">
-        <v>755.183133481126</v>
+        <v>265.3924131404652</v>
       </c>
     </row>
     <row r="20">
@@ -5728,7 +5728,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
@@ -5764,7 +5764,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
@@ -5794,10 +5794,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5831,28 +5831,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K21" t="n">
-        <v>412.6079778147081</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L21" t="n">
-        <v>659.3731057211721</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M21" t="n">
-        <v>1427.741252113634</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N21" t="n">
-        <v>2232.152830377785</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O21" t="n">
-        <v>2232.152830377785</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P21" t="n">
-        <v>2437.175311159994</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q21" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>420.3226148324574</v>
+        <v>506.3210135240263</v>
       </c>
       <c r="C22" t="n">
-        <v>420.3226148324574</v>
+        <v>337.3848305961194</v>
       </c>
       <c r="D22" t="n">
-        <v>420.3226148324574</v>
+        <v>337.3848305961194</v>
       </c>
       <c r="E22" t="n">
-        <v>420.3226148324574</v>
+        <v>189.4717370137263</v>
       </c>
       <c r="F22" t="n">
-        <v>420.3226148324574</v>
+        <v>189.4717370137263</v>
       </c>
       <c r="G22" t="n">
-        <v>252.147293152278</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>101.7292847002213</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
         <v>97.21709146028584</v>
@@ -5934,28 +5934,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>964.135741824786</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U22" t="n">
-        <v>675.0071030383442</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V22" t="n">
-        <v>420.3226148324574</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W22" t="n">
-        <v>420.3226148324574</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="X22" t="n">
-        <v>420.3226148324574</v>
+        <v>727.1135926675564</v>
       </c>
       <c r="Y22" t="n">
-        <v>420.3226148324574</v>
+        <v>506.3210135240263</v>
       </c>
     </row>
     <row r="23">
@@ -5965,37 +5965,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155899</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515098</v>
@@ -6004,37 +6004,37 @@
         <v>3183.709822619129</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
         <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6068,22 +6068,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256435</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K24" t="n">
-        <v>264.0657286834809</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L24" t="n">
-        <v>877.9627984403695</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M24" t="n">
-        <v>1646.330944832831</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N24" t="n">
-        <v>1990.851600470449</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O24" t="n">
-        <v>2440.930027762787</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P24" t="n">
         <v>2623.573505376138</v>
@@ -6123,16 +6123,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F25" t="n">
         <v>97.21709146028584</v>
@@ -6174,25 +6174,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>1158.436939387592</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U25" t="n">
-        <v>869.3083006011506</v>
+        <v>1016.198248099061</v>
       </c>
       <c r="V25" t="n">
-        <v>614.6238123952637</v>
+        <v>761.5137598931742</v>
       </c>
       <c r="W25" t="n">
-        <v>325.2066423583032</v>
+        <v>472.0965898562135</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
     </row>
     <row r="26">
@@ -6202,43 +6202,43 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822469</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
@@ -6250,28 +6250,28 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3224.712326690732</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C27" t="n">
-        <v>3050.259297409605</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D27" t="n">
-        <v>2901.324887748354</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E27" t="n">
-        <v>2742.087432742898</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>2595.552874769783</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
-        <v>2458.626196373968</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>2362.681322805656</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>2334.49815909844</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
-        <v>2334.49815909844</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K27" t="n">
-        <v>2745.388427942953</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L27" t="n">
-        <v>3359.285497699841</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M27" t="n">
-        <v>3666.605630979803</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N27" t="n">
-        <v>4191.390811711632</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O27" t="n">
-        <v>4860.854573014291</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P27" t="n">
-        <v>4860.854573014291</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q27" t="n">
-        <v>4860.854573014291</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
-        <v>4860.854573014291</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S27" t="n">
-        <v>4720.948468098066</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T27" t="n">
-        <v>4526.033852021844</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U27" t="n">
-        <v>4297.928927641231</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V27" t="n">
-        <v>4062.776819409488</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W27" t="n">
-        <v>3808.539462681287</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X27" t="n">
-        <v>3600.687962475754</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y27" t="n">
-        <v>3392.9276637108</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="28">
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>247.3337308726216</v>
+        <v>710.3120936331045</v>
       </c>
       <c r="C28" t="n">
-        <v>247.3337308726216</v>
+        <v>710.3120936331045</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028583</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028583</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028583</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6399,37 +6399,37 @@
         <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.48306298006</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585743</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557899</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557899</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557899</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>1308.553578799928</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U28" t="n">
-        <v>1019.424940013486</v>
+        <v>1374.634597567249</v>
       </c>
       <c r="V28" t="n">
-        <v>764.7404518075996</v>
+        <v>1119.950109361362</v>
       </c>
       <c r="W28" t="n">
-        <v>475.3232817706389</v>
+        <v>1119.950109361362</v>
       </c>
       <c r="X28" t="n">
-        <v>247.3337308726216</v>
+        <v>891.9605584633442</v>
       </c>
       <c r="Y28" t="n">
-        <v>247.3337308726216</v>
+        <v>891.9605584633442</v>
       </c>
     </row>
     <row r="29">
@@ -6439,13 +6439,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
@@ -6454,61 +6454,61 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6542,25 +6542,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K30" t="n">
-        <v>388.8958536704856</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L30" t="n">
-        <v>1002.792923427374</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M30" t="n">
-        <v>1440.604255405482</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N30" t="n">
-        <v>1785.124911043099</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O30" t="n">
-        <v>2033.878325127062</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P30" t="n">
-        <v>2554.178946862809</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6627,10 +6627,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6648,7 +6648,7 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1382.222354598087</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
         <v>1158.436939387592</v>
@@ -6676,7 +6676,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
         <v>2059.358867610191</v>
@@ -6685,34 +6685,34 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J32" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643324</v>
@@ -6721,31 +6721,31 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6776,28 +6776,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K33" t="n">
-        <v>395.9961833785278</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L33" t="n">
-        <v>1009.893253135416</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M33" t="n">
-        <v>1778.261399527878</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N33" t="n">
-        <v>2122.782055165496</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O33" t="n">
-        <v>2371.535469249458</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P33" t="n">
-        <v>2554.178946862809</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.21709146028587</v>
+        <v>991.0842369787848</v>
       </c>
       <c r="C34" t="n">
-        <v>97.21709146028587</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="D34" t="n">
-        <v>97.21709146028587</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028587</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028587</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028587</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6864,10 +6864,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
@@ -6888,22 +6888,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T34" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U34" t="n">
-        <v>986.0022165609664</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V34" t="n">
-        <v>731.3177283550796</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W34" t="n">
-        <v>441.900558318119</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="X34" t="n">
-        <v>213.9110074201016</v>
+        <v>1172.732701809025</v>
       </c>
       <c r="Y34" t="n">
-        <v>97.21709146028587</v>
+        <v>1172.732701809025</v>
       </c>
     </row>
     <row r="35">
@@ -6916,10 +6916,10 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
@@ -6931,43 +6931,43 @@
         <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U35" t="n">
         <v>4262.3578574653</v>
@@ -7016,28 +7016,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L36" t="n">
-        <v>1188.130761344647</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M36" t="n">
-        <v>1188.130761344647</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N36" t="n">
-        <v>1517.99338900868</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O36" t="n">
-        <v>1797.533454227377</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P36" t="n">
-        <v>2317.834075963124</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3778.208216256917</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C37" t="n">
-        <v>3609.27203332901</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O37" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q37" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>4549.85945949167</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>4549.85945949167</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U37" t="n">
-        <v>4260.730820705228</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V37" t="n">
-        <v>4260.730820705228</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W37" t="n">
-        <v>4260.730820705228</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X37" t="n">
-        <v>4180.649260230687</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y37" t="n">
-        <v>3959.856681087157</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="38">
@@ -7162,19 +7162,19 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
         <v>889.2841917514082</v>
@@ -7186,7 +7186,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
@@ -7253,22 +7253,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L39" t="n">
-        <v>1014.264061581379</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M39" t="n">
-        <v>1334.599381111081</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N39" t="n">
-        <v>2139.010959375231</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O39" t="n">
-        <v>2418.551024593929</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P39" t="n">
         <v>2623.573505376138</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028584</v>
+        <v>434.3285960683721</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G40" t="n">
         <v>97.21709146028584</v>
@@ -7365,19 +7365,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="U40" t="n">
-        <v>1209.787631771461</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V40" t="n">
-        <v>955.1031435655738</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W40" t="n">
-        <v>665.6859735286132</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X40" t="n">
-        <v>437.6964226305959</v>
+        <v>726.8250614170374</v>
       </c>
       <c r="Y40" t="n">
-        <v>216.9038434870658</v>
+        <v>615.9770608986119</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822462</v>
@@ -7414,7 +7414,7 @@
         <v>365.8813331823786</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795207</v>
@@ -7444,19 +7444,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7490,19 +7490,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K42" t="n">
-        <v>648.0342195052083</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L42" t="n">
-        <v>1261.931289262097</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M42" t="n">
-        <v>2030.299435654558</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N42" t="n">
-        <v>2374.820091292176</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O42" t="n">
         <v>2623.573505376138</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>100.8871334832924</v>
+        <v>695.9798268587604</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028584</v>
+        <v>527.0436439308535</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028584</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028584</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028584</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I43" t="n">
         <v>97.21709146028584</v>
@@ -7593,28 +7593,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S43" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T43" t="n">
-        <v>1275.130855347408</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U43" t="n">
-        <v>986.0022165609664</v>
+        <v>1167.045461725961</v>
       </c>
       <c r="V43" t="n">
-        <v>731.3177283550796</v>
+        <v>1167.045461725961</v>
       </c>
       <c r="W43" t="n">
-        <v>731.3177283550796</v>
+        <v>877.6282916890001</v>
       </c>
       <c r="X43" t="n">
-        <v>503.3281774570622</v>
+        <v>877.6282916890001</v>
       </c>
       <c r="Y43" t="n">
-        <v>282.5355983135321</v>
+        <v>877.6282916890001</v>
       </c>
     </row>
     <row r="44">
@@ -7627,52 +7627,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7681,16 +7681,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7724,31 +7724,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
-        <v>243.0706902632331</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K45" t="n">
-        <v>653.9609591077458</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L45" t="n">
-        <v>883.924064976095</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M45" t="n">
-        <v>1204.259384505797</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N45" t="n">
-        <v>1548.780040143415</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O45" t="n">
-        <v>1797.533454227377</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
@@ -7839,19 +7839,19 @@
         <v>1158.436939387592</v>
       </c>
       <c r="U46" t="n">
-        <v>869.3083006011506</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V46" t="n">
-        <v>614.6238123952637</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W46" t="n">
         <v>325.2066423583032</v>
       </c>
       <c r="X46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
   </sheetData>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747073</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8537,7 +8537,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>251.4045252050821</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
@@ -8768,22 +8768,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>14.14674423479693</v>
+        <v>158.9979480233626</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
@@ -9005,25 +9005,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
-        <v>29.79753375920029</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
@@ -9245,13 +9245,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
         <v>479.3423743435536</v>
@@ -9263,10 +9263,10 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9482,10 +9482,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
         <v>465.7050637499999</v>
@@ -9494,13 +9494,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>89.53058551678842</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9716,7 +9716,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9731,16 +9731,16 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9953,7 +9953,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -9962,19 +9962,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>196.8914677452481</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10205,16 +10205,16 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10442,16 +10442,16 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10606,7 +10606,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599049</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10670,22 +10670,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>269.6334050313357</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10840,7 +10840,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714832</v>
       </c>
       <c r="Q38" t="n">
         <v>212.3149906599047</v>
@@ -10907,7 +10907,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>94.01047597752921</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
         <v>465.7050637499999</v>
@@ -10916,16 +10916,16 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11062,7 +11062,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>324.145412571165</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
@@ -11141,7 +11141,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>237.8042845358588</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
@@ -11153,16 +11153,16 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11375,7 +11375,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>105.4166885228179</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -11390,13 +11390,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23421,22 +23421,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>9.760100492532558</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23472,19 +23472,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>181.6434003485473</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23515,7 +23515,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.165290086646564e-12</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23652,13 +23652,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23667,13 +23667,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>130.2072968896586</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>72.85408147092944</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23706,19 +23706,19 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23892,16 +23892,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>122.8244916490866</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>133.1420986615191</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23952,7 +23952,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -24129,25 +24129,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>75.16146936547156</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>105.9521741567359</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24192,10 +24192,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24375,7 +24375,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
@@ -24414,13 +24414,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>82.39383318338548</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>29.89407122271371</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24609,13 +24609,13 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
@@ -24654,16 +24654,16 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>33.08849621799854</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>163.1984961378301</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24888,10 +24888,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>82.39383318338567</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25128,22 +25128,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>154.9255656514762</v>
       </c>
       <c r="Y34" t="n">
-        <v>103.0576765518772</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25311,13 +25311,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25359,25 +25359,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>103.0576765518773</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>146.4289105192414</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25548,10 +25548,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>61.34209567542518</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25563,7 +25563,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>148.9138283675361</v>
@@ -25605,7 +25605,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>108.8451328388535</v>
       </c>
     </row>
     <row r="41">
@@ -25788,10 +25788,10 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>163.6134794958514</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25800,13 +25800,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>265.5704140423512</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26076,7 +26076,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>82.39383318338548</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>840712.4784360743</v>
+        <v>840712.4784360742</v>
       </c>
     </row>
     <row r="6">
@@ -26319,40 +26319,40 @@
         <v>554203.1946583912</v>
       </c>
       <c r="D2" t="n">
-        <v>554203.1946583911</v>
+        <v>554203.1946583908</v>
       </c>
       <c r="E2" t="n">
+        <v>527889.2306459071</v>
+      </c>
+      <c r="F2" t="n">
+        <v>527889.2306459071</v>
+      </c>
+      <c r="G2" t="n">
         <v>527889.2306459069</v>
       </c>
-      <c r="F2" t="n">
+      <c r="H2" t="n">
+        <v>527889.2306459071</v>
+      </c>
+      <c r="I2" t="n">
+        <v>527889.2306459069</v>
+      </c>
+      <c r="J2" t="n">
+        <v>527889.2306459069</v>
+      </c>
+      <c r="K2" t="n">
+        <v>527889.2306459069</v>
+      </c>
+      <c r="L2" t="n">
+        <v>527889.2306459069</v>
+      </c>
+      <c r="M2" t="n">
         <v>527889.230645907</v>
       </c>
-      <c r="G2" t="n">
-        <v>527889.2306459071</v>
-      </c>
-      <c r="H2" t="n">
-        <v>527889.2306459073</v>
-      </c>
-      <c r="I2" t="n">
-        <v>527889.230645907</v>
-      </c>
-      <c r="J2" t="n">
-        <v>527889.230645907</v>
-      </c>
-      <c r="K2" t="n">
-        <v>527889.2306459071</v>
-      </c>
-      <c r="L2" t="n">
-        <v>527889.2306459072</v>
-      </c>
-      <c r="M2" t="n">
-        <v>527889.2306459071</v>
-      </c>
       <c r="N2" t="n">
-        <v>527889.2306459071</v>
+        <v>527889.2306459069</v>
       </c>
       <c r="O2" t="n">
-        <v>527889.2306459072</v>
+        <v>527889.2306459069</v>
       </c>
       <c r="P2" t="n">
         <v>527889.2306459069</v>
@@ -26371,10 +26371,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.434074986013002e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768957</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,10 +26389,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>1.170374162029475e-10</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26423,34 +26423,34 @@
         <v>139059.1391806191</v>
       </c>
       <c r="D4" t="n">
-        <v>139059.1391806191</v>
+        <v>139059.139180619</v>
       </c>
       <c r="E4" t="n">
+        <v>787.7936905758694</v>
+      </c>
+      <c r="F4" t="n">
+        <v>787.7936905759088</v>
+      </c>
+      <c r="G4" t="n">
         <v>787.7936905758695</v>
-      </c>
-      <c r="F4" t="n">
-        <v>787.7936905758695</v>
-      </c>
-      <c r="G4" t="n">
-        <v>787.7936905758694</v>
       </c>
       <c r="H4" t="n">
         <v>787.7936905758694</v>
       </c>
       <c r="I4" t="n">
+        <v>787.7936905758694</v>
+      </c>
+      <c r="J4" t="n">
         <v>787.7936905758695</v>
-      </c>
-      <c r="J4" t="n">
-        <v>787.7936905758693</v>
       </c>
       <c r="K4" t="n">
         <v>787.7936905758695</v>
       </c>
       <c r="L4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="M4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905759103</v>
       </c>
       <c r="N4" t="n">
         <v>787.7936905758694</v>
@@ -26475,43 +26475,43 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="I5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="J5" t="n">
         <v>91987.32594871664</v>
-      </c>
-      <c r="I5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="J5" t="n">
-        <v>91987.32594871661</v>
       </c>
       <c r="K5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26524,46 +26524,46 @@
         <v>-257682.9018001815</v>
       </c>
       <c r="C6" t="n">
-        <v>332284.9774143627</v>
+        <v>332284.9774143626</v>
       </c>
       <c r="D6" t="n">
-        <v>332284.9774143626</v>
+        <v>332284.9774143621</v>
       </c>
       <c r="E6" t="n">
-        <v>-90045.92547028176</v>
+        <v>-91020.5167300027</v>
       </c>
       <c r="F6" t="n">
-        <v>435114.1110066145</v>
+        <v>434139.519746893</v>
       </c>
       <c r="G6" t="n">
-        <v>435114.1110066146</v>
+        <v>434139.5197468927</v>
       </c>
       <c r="H6" t="n">
-        <v>435114.1110066149</v>
+        <v>434139.519746893</v>
       </c>
       <c r="I6" t="n">
-        <v>435114.1110066145</v>
+        <v>434139.5197468927</v>
       </c>
       <c r="J6" t="n">
-        <v>258690.8918140216</v>
+        <v>257716.3005542997</v>
       </c>
       <c r="K6" t="n">
-        <v>435114.1110066145</v>
+        <v>434139.5197468927</v>
       </c>
       <c r="L6" t="n">
-        <v>435114.1110066148</v>
+        <v>434139.5197468927</v>
       </c>
       <c r="M6" t="n">
-        <v>300313.0957727776</v>
+        <v>299338.5045130557</v>
       </c>
       <c r="N6" t="n">
-        <v>435114.1110066146</v>
+        <v>434139.5197468927</v>
       </c>
       <c r="O6" t="n">
-        <v>435114.1110066148</v>
+        <v>434139.5197468927</v>
       </c>
       <c r="P6" t="n">
-        <v>435114.1110066144</v>
+        <v>434139.5197468927</v>
       </c>
     </row>
   </sheetData>
@@ -26743,7 +26743,7 @@
         <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.743664217087</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541002</v>
@@ -26755,25 +26755,25 @@
         <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
         <v>830.3824054541002</v>
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545559</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26965,10 +26965,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370132</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990171</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="K4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990171</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990171</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>219.1066049712198</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27390,16 +27390,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>124.1457077469499</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27539,16 +27539,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27596,16 +27596,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>89.80115265030477</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>226.7961607607226</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27621,19 +27621,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>140.9710716513183</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27666,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>248.3475241484817</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27773,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>164.6495829196617</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27788,16 +27788,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27833,10 +27833,10 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>187.07879341505</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>30.19760335462547</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>168.3154300822063</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,31 +28010,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>120.1051426060683</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853696</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,13 +28055,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491425</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>56.82580834555245</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
@@ -28326,7 +28326,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>8.682195192673604e-13</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -29289,7 +29289,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29471,7 +29471,7 @@
         <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>-2.345015412723166e-12</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
         <v>0</v>
@@ -29988,7 +29988,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -31132,7 +31132,7 @@
         <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
-        <v>131.2017781649102</v>
+        <v>11.76595806653259</v>
       </c>
       <c r="L3" t="n">
         <v>176.4169820478007</v>
@@ -31366,13 +31366,13 @@
         <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478007</v>
+        <v>132.9984977071298</v>
       </c>
       <c r="M6" t="n">
         <v>205.8702969983122</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340047</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935141001</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554472</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727437</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081579</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630672</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405369</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338307</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119868</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954669</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044139</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633806</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727386</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473559</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141116</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188921</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890692</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478009</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983124</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>167.9005868329983</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923049</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479579</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034986</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131474</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372668</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619158</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078616</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644448</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492007</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813582</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302246</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246924</v>
+        <v>101.2724571246925</v>
       </c>
       <c r="M10" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917251</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666595</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175852</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383808</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678013</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701166</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695337</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197226</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315613</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31840,19 +31840,19 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -32077,25 +32077,25 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>380.4309478731437</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
         <v>227.9948068710956</v>
@@ -32253,7 +32253,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946997</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32314,19 +32314,19 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>10.6450348835823</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>225.9628574215825</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32335,10 +32335,10 @@
         <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
         <v>33.17612723677464</v>
@@ -32463,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32481,7 +32481,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32490,7 +32490,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32499,7 +32499,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32551,7 +32551,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32560,28 +32560,28 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32642,7 +32642,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32654,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32718,7 +32718,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32727,7 +32727,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32736,7 +32736,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32788,37 +32788,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O24" t="n">
-        <v>203.3585992003799</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32879,7 +32879,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32891,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32955,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32964,16 +32964,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446492</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33025,7 +33025,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33034,28 +33034,28 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33116,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33128,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33192,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33201,16 +33201,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
       </c>
       <c r="R29" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446492</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33262,37 +33262,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>118.6626388367733</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33353,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33365,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33429,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33438,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33447,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33499,19 +33499,19 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
-        <v>7.172050210143624</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -33523,13 +33523,13 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33590,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33602,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33666,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33675,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33684,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33736,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33745,28 +33745,28 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33827,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33839,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33903,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33912,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33921,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33973,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33982,28 +33982,28 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34064,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34076,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34210,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34222,19 +34222,19 @@
         <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
         <v>33.17612723677464</v>
@@ -34392,7 +34392,7 @@
         <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446492</v>
       </c>
       <c r="S44" t="n">
         <v>76.06970478104648</v>
@@ -34447,31 +34447,31 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
         <v>33.17612723677464</v>
@@ -34780,7 +34780,7 @@
         <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34798,7 +34798,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35014,13 +35014,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>365.2844632307148</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
@@ -35035,7 +35035,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.2230414343421</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435304</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060967</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492239</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530454</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.93761631168</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.9975062898691</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L9" t="n">
-        <v>289.2671274730086</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.441326826294</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>515.9012490932186</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.58174042459</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735648</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>173.8110948137342</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713961</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850086</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535657</v>
       </c>
       <c r="N10" t="n">
-        <v>148.370846145888</v>
+        <v>148.3708461458881</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873156</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35488,22 +35488,22 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
-        <v>324.5711212852631</v>
+        <v>16.86391410134428</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P12" t="n">
         <v>525.5561835714618</v>
@@ -35725,25 +35725,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004661</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>728.431610133364</v>
       </c>
       <c r="O15" t="n">
-        <v>312.1612360003084</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
@@ -35901,7 +35901,7 @@
         <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109128</v>
       </c>
       <c r="Q17" t="n">
         <v>350.4995841502048</v>
@@ -35962,19 +35962,19 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>242.9310004071673</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415663</v>
+        <v>573.9635196818027</v>
       </c>
       <c r="O18" t="n">
         <v>676.2260215178376</v>
@@ -36120,16 +36120,16 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M21" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415665</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315247</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>177.5436183018626</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36293,13 +36293,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,13 +36360,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,25 +36436,25 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490668</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>126.6237980382196</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M24" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N24" t="n">
-        <v>348.0006622602202</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O24" t="n">
-        <v>454.624674032665</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36530,13 +36530,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,13 +36597,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36682,13 +36682,13 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N27" t="n">
-        <v>530.086041143261</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178377</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36767,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515205991</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,13 +36834,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>126.6237980382196</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
-        <v>442.2336686647549</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N30" t="n">
-        <v>348.0006622602202</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O30" t="n">
-        <v>251.2660748322851</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37004,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37071,13 +37071,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>133.7958482483632</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M33" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N33" t="n">
-        <v>348.0006622602202</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O33" t="n">
-        <v>251.2660748322851</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37241,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,13 +37308,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37326,10 +37326,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502051</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,31 +37384,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>518.89110998736</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37478,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,16 +37542,16 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37560,13 +37560,13 @@
         <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109128</v>
       </c>
       <c r="Q38" t="n">
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,25 +37621,25 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>343.2681809335535</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415665</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315247</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37715,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,7 +37782,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
@@ -37858,10 +37858,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>388.379723123798</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
         <v>620.0980502594834</v>
@@ -37870,10 +37870,10 @@
         <v>776.1294408004661</v>
       </c>
       <c r="N42" t="n">
-        <v>348.0006622602202</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O42" t="n">
-        <v>251.2660748322851</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,31 +38095,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>147.3268674777245</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M45" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N45" t="n">
-        <v>348.0006622602202</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O45" t="n">
-        <v>251.2660748322851</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_0_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_0_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2319727.23377371</v>
+        <v>2324666.496622742</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>662230.1703019222</v>
+        <v>640551.7975891328</v>
       </c>
     </row>
     <row r="8">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>163.6272366922608</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>122.2976004293082</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
@@ -676,7 +676,7 @@
         <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -721,13 +721,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>59.72683757586846</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>59.72683757586846</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,16 +943,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>2.876643359807645</v>
+        <v>60.46179076613092</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -1056,10 +1056,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>128.7835007017901</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>65.05884990877797</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1135,19 +1135,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>91.72166227029862</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1180,19 +1180,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481162</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>186.2507170030323</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1229,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250816</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229327</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>59.72683757586903</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1353,13 +1353,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>155.2114886365809</v>
       </c>
     </row>
     <row r="11">
@@ -1381,7 +1381,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417112</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>411.9645167896915</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1545,7 +1545,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>139.1537278750036</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1578,10 +1578,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634797</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>36.28627157371903</v>
+        <v>110.1245359962703</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,25 +1812,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2016,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2052,25 +2052,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>145.520986584798</v>
       </c>
       <c r="T19" t="n">
-        <v>88.40546239687016</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2083,7 +2083,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2098,10 +2098,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H20" t="n">
-        <v>305.2872491113177</v>
+        <v>305.287249111317</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2241,19 +2241,19 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>91.33209909790602</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2292,7 +2292,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
@@ -2301,13 +2301,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>115.5269768002176</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2487,7 +2487,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2526,25 +2526,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>256.3432811758636</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>204.1291651532053</v>
       </c>
     </row>
     <row r="26">
@@ -2560,7 +2560,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206827</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274137</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>28.56876306769565</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2766,19 +2766,19 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>123.0388562607472</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2955,7 +2955,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -3000,10 +3000,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>139.1537278750035</v>
+        <v>188.4590648403943</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3240,19 +3240,19 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>191.6534898356754</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>70.78408973756098</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3268,7 +3268,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710066</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3480,7 +3480,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>183.1796758467</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>115.5269768002176</v>
       </c>
     </row>
     <row r="38">
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3663,25 +3663,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3720,16 +3720,16 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>248.1228648507247</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>109.7395205132413</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3900,10 +3900,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3912,13 +3912,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>24.29718497126802</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,25 +3945,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>20.66693835622613</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4134,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>139.1537278750035</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>64.3419076393841</v>
       </c>
     </row>
   </sheetData>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>770.969123535386</v>
+        <v>567.3073332979627</v>
       </c>
       <c r="C2" t="n">
-        <v>402.0066065949742</v>
+        <v>198.344816357551</v>
       </c>
       <c r="D2" t="n">
-        <v>402.0066065949742</v>
+        <v>198.344816357551</v>
       </c>
       <c r="E2" t="n">
-        <v>402.0066065949742</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F2" t="n">
-        <v>395.0611058457707</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
         <v>53.94298182036445</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V2" t="n">
-        <v>1662.48357412947</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="W2" t="n">
-        <v>1309.714918859356</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="X2" t="n">
-        <v>936.2491605982757</v>
+        <v>1344.046505337896</v>
       </c>
       <c r="Y2" t="n">
-        <v>936.2491605982757</v>
+        <v>953.9071733620844</v>
       </c>
     </row>
     <row r="3">
@@ -4400,10 +4400,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4412,28 +4412,28 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1851.37379586972</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2291.509718890064</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2627.754532504893</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4527,13 +4527,13 @@
         <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>667.7988452409105</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>667.7988452409105</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>667.7988452409105</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="5">
@@ -4543,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>586.5435612426379</v>
+        <v>802.0401021781393</v>
       </c>
       <c r="C5" t="n">
-        <v>586.5435612426379</v>
+        <v>433.0775852377275</v>
       </c>
       <c r="D5" t="n">
-        <v>228.2778626358874</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="E5" t="n">
-        <v>228.2778626358874</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F5" t="n">
-        <v>221.3323618866839</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2423.485734520778</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2420.580034157336</v>
+        <v>2636.076575092838</v>
       </c>
       <c r="V5" t="n">
-        <v>2089.517146813766</v>
+        <v>2305.013687749267</v>
       </c>
       <c r="W5" t="n">
-        <v>1736.748491543651</v>
+        <v>1952.245032479153</v>
       </c>
       <c r="X5" t="n">
-        <v>1363.282733282571</v>
+        <v>1578.779274218073</v>
       </c>
       <c r="Y5" t="n">
-        <v>973.1434013067596</v>
+        <v>1188.639942242261</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4652,10 +4652,10 @@
         <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598706</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417901</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4685,10 +4685,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4701,10 +4701,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>372.9958041606071</v>
+        <v>184.0273259635867</v>
       </c>
       <c r="C7" t="n">
-        <v>204.0596212327002</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>662.4129741975678</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="W7" t="n">
-        <v>372.9958041606071</v>
+        <v>184.0273259635867</v>
       </c>
       <c r="X7" t="n">
-        <v>372.9958041606071</v>
+        <v>184.0273259635867</v>
       </c>
       <c r="Y7" t="n">
-        <v>372.9958041606071</v>
+        <v>184.0273259635867</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>443.7744035713887</v>
+        <v>975.5408384191576</v>
       </c>
       <c r="C8" t="n">
-        <v>74.81188663097704</v>
+        <v>975.5408384191576</v>
       </c>
       <c r="D8" t="n">
-        <v>74.81188663097704</v>
+        <v>975.5408384191576</v>
       </c>
       <c r="E8" t="n">
-        <v>74.81188663097704</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177357</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533144</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.961649073313</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
-        <v>1362.238747280444</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018224</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548717</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862887</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2277.810876486087</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U8" t="n">
-        <v>2277.810876486087</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="V8" t="n">
-        <v>1946.747989142516</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="W8" t="n">
-        <v>1593.979333872402</v>
+        <v>2125.745768720171</v>
       </c>
       <c r="X8" t="n">
-        <v>1220.513575611322</v>
+        <v>1752.280010459091</v>
       </c>
       <c r="Y8" t="n">
-        <v>830.3742436355105</v>
+        <v>1362.140678483279</v>
       </c>
     </row>
     <row r="9">
@@ -4880,19 +4880,19 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>309.1903022614631</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571351</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>667.7988452409106</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>498.8626623130037</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>348.746022900668</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866327</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477912</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658212</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502504</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594906</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064349</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064349</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064349</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064349</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064349</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064349</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064349</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064349</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064349</v>
+        <v>210.7222632714563</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064349</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5029,13 +5029,13 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028584</v>
@@ -5123,13 +5123,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K12" t="n">
-        <v>508.1073603047985</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L12" t="n">
-        <v>1122.004430061687</v>
+        <v>711.1141612171745</v>
       </c>
       <c r="M12" t="n">
-        <v>1138.699705022018</v>
+        <v>711.1141612171745</v>
       </c>
       <c r="N12" t="n">
         <v>1138.699705022018</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>237.776412546148</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C13" t="n">
-        <v>237.776412546148</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D13" t="n">
-        <v>237.776412546148</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>237.776412546148</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>237.776412546148</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>237.776412546148</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
         <v>97.21709146028584</v>
@@ -5226,25 +5226,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T13" t="n">
-        <v>1298.996260473455</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U13" t="n">
-        <v>1009.867621687013</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V13" t="n">
-        <v>755.183133481126</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W13" t="n">
-        <v>465.7659634441654</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X13" t="n">
-        <v>237.776412546148</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y13" t="n">
-        <v>237.776412546148</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="14">
@@ -5254,7 +5254,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
@@ -5263,40 +5263,40 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J14" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
@@ -5305,22 +5305,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
         <v>2814.921224614724</v>
@@ -5369,13 +5369,13 @@
         <v>417.5524109899876</v>
       </c>
       <c r="N15" t="n">
-        <v>1138.699705022018</v>
+        <v>1221.963989254138</v>
       </c>
       <c r="O15" t="n">
-        <v>1808.163466324677</v>
+        <v>1891.427750556797</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2411.728372292545</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>302.8060739576059</v>
+        <v>765.2096374174363</v>
       </c>
       <c r="C16" t="n">
-        <v>133.869891029699</v>
+        <v>765.2096374174363</v>
       </c>
       <c r="D16" t="n">
-        <v>133.869891029699</v>
+        <v>765.2096374174363</v>
       </c>
       <c r="E16" t="n">
-        <v>133.869891029699</v>
+        <v>617.2965438350432</v>
       </c>
       <c r="F16" t="n">
-        <v>133.869891029699</v>
+        <v>470.4065963371328</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5460,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1187.92115703528</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U16" t="n">
-        <v>1187.92115703528</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V16" t="n">
-        <v>933.2366688293931</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="W16" t="n">
-        <v>933.2366688293931</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="X16" t="n">
-        <v>705.2471179313758</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="Y16" t="n">
-        <v>484.4545387878456</v>
+        <v>765.2096374174363</v>
       </c>
     </row>
     <row r="17">
@@ -5515,10 +5515,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823786</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5603,7 +5603,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="M18" t="n">
-        <v>865.5852378527472</v>
+        <v>629.3975440735812</v>
       </c>
       <c r="N18" t="n">
         <v>1433.809122337732</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
         <v>97.21709146028584</v>
@@ -5700,25 +5700,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1187.92115703528</v>
+        <v>1240.850271579528</v>
       </c>
       <c r="T19" t="n">
-        <v>1098.622710169755</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="U19" t="n">
-        <v>809.4940713833126</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="V19" t="n">
-        <v>554.8095831774258</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W19" t="n">
-        <v>265.3924131404652</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X19" t="n">
-        <v>265.3924131404652</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y19" t="n">
-        <v>265.3924131404652</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="20">
@@ -5737,13 +5737,13 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H20" t="n">
         <v>179.8222783822462</v>
@@ -5752,7 +5752,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
         <v>889.2841917514082</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>506.3210135240263</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>337.3848305961194</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>337.3848305961194</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>189.4717370137263</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>189.4717370137263</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
         <v>97.21709146028584</v>
@@ -5940,22 +5940,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U22" t="n">
-        <v>1209.787631771461</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V22" t="n">
-        <v>955.1031435655738</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W22" t="n">
-        <v>955.1031435655738</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X22" t="n">
-        <v>727.1135926675564</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y22" t="n">
-        <v>506.3210135240263</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5989,25 +5989,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823782</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
@@ -6123,16 +6123,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
         <v>97.21709146028584</v>
@@ -6174,25 +6174,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U25" t="n">
-        <v>1016.198248099061</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V25" t="n">
-        <v>761.5137598931742</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W25" t="n">
-        <v>472.0965898562135</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="X25" t="n">
-        <v>244.1070389581962</v>
+        <v>303.4081673726145</v>
       </c>
       <c r="Y25" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805476</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822469</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6302,10 +6302,10 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K27" t="n">
         <v>508.1073603047985</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>710.3120936331045</v>
+        <v>441.900558318119</v>
       </c>
       <c r="C28" t="n">
-        <v>710.3120936331045</v>
+        <v>272.964375390212</v>
       </c>
       <c r="D28" t="n">
-        <v>560.1954542207687</v>
+        <v>272.964375390212</v>
       </c>
       <c r="E28" t="n">
-        <v>412.2823606383756</v>
+        <v>272.964375390212</v>
       </c>
       <c r="F28" t="n">
-        <v>265.3924131404652</v>
+        <v>126.0744278923017</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028587</v>
+        <v>126.0744278923017</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028587</v>
+        <v>126.0744278923017</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6414,22 +6414,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U28" t="n">
-        <v>1374.634597567249</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V28" t="n">
-        <v>1119.950109361362</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W28" t="n">
-        <v>1119.950109361362</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X28" t="n">
-        <v>891.9605584633442</v>
+        <v>441.900558318119</v>
       </c>
       <c r="Y28" t="n">
-        <v>891.9605584633442</v>
+        <v>441.900558318119</v>
       </c>
     </row>
     <row r="29">
@@ -6451,43 +6451,43 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
         <v>4726.561275231264</v>
@@ -6539,10 +6539,10 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K30" t="n">
         <v>508.1073603047985</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.21709146028587</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028587</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6648,25 +6648,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T31" t="n">
-        <v>1158.436939387592</v>
+        <v>1308.553578799928</v>
       </c>
       <c r="U31" t="n">
-        <v>869.3083006011507</v>
+        <v>1019.424940013486</v>
       </c>
       <c r="V31" t="n">
-        <v>614.6238123952638</v>
+        <v>764.7404518075996</v>
       </c>
       <c r="W31" t="n">
-        <v>325.2066423583032</v>
+        <v>475.3232817706389</v>
       </c>
       <c r="X31" t="n">
-        <v>97.21709146028587</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="Y31" t="n">
-        <v>97.21709146028587</v>
+        <v>247.3337308726216</v>
       </c>
     </row>
     <row r="32">
@@ -6703,22 +6703,22 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
         <v>4801.62743720783</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>991.0842369787848</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="C34" t="n">
-        <v>822.1480540508779</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="D34" t="n">
-        <v>822.1480540508779</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E34" t="n">
-        <v>674.2349604684848</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F34" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
         <v>97.21709146028584</v>
@@ -6888,22 +6888,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T34" t="n">
-        <v>1498.916270557902</v>
+        <v>1305.326886885503</v>
       </c>
       <c r="U34" t="n">
-        <v>1498.916270557902</v>
+        <v>1016.198248099061</v>
       </c>
       <c r="V34" t="n">
-        <v>1244.231782352015</v>
+        <v>761.5137598931742</v>
       </c>
       <c r="W34" t="n">
-        <v>1244.231782352015</v>
+        <v>472.0965898562135</v>
       </c>
       <c r="X34" t="n">
-        <v>1172.732701809025</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="Y34" t="n">
-        <v>1172.732701809025</v>
+        <v>244.1070389581962</v>
       </c>
     </row>
     <row r="35">
@@ -6916,10 +6916,10 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
@@ -6931,16 +6931,16 @@
         <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
@@ -6949,25 +6949,25 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
         <v>4262.3578574653</v>
@@ -7128,16 +7128,16 @@
         <v>1275.130855347408</v>
       </c>
       <c r="U37" t="n">
-        <v>1090.100879744681</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V37" t="n">
-        <v>835.416391538794</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W37" t="n">
-        <v>545.9992215018333</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X37" t="n">
-        <v>318.0096706038159</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y37" t="n">
         <v>97.21709146028584</v>
@@ -7162,31 +7162,31 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>434.3285960683721</v>
+        <v>506.7814158330672</v>
       </c>
       <c r="C40" t="n">
-        <v>265.3924131404652</v>
+        <v>506.7814158330672</v>
       </c>
       <c r="D40" t="n">
-        <v>265.3924131404652</v>
+        <v>356.6647764207315</v>
       </c>
       <c r="E40" t="n">
-        <v>265.3924131404652</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F40" t="n">
-        <v>265.3924131404652</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I40" t="n">
         <v>97.21709146028584</v>
@@ -7356,28 +7356,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S40" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T40" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U40" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="V40" t="n">
-        <v>1244.231782352015</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="W40" t="n">
-        <v>954.8146123150548</v>
+        <v>1137.212010704854</v>
       </c>
       <c r="X40" t="n">
-        <v>726.8250614170374</v>
+        <v>909.222459806837</v>
       </c>
       <c r="Y40" t="n">
-        <v>615.9770608986119</v>
+        <v>688.4298806633069</v>
       </c>
     </row>
     <row r="41">
@@ -7399,19 +7399,19 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
         <v>889.2841917514085</v>
@@ -7493,13 +7493,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K42" t="n">
-        <v>508.1073603047985</v>
+        <v>436.8967109626374</v>
       </c>
       <c r="L42" t="n">
-        <v>1122.004430061687</v>
+        <v>1050.793780719526</v>
       </c>
       <c r="M42" t="n">
-        <v>1890.372576454149</v>
+        <v>1819.161927111988</v>
       </c>
       <c r="N42" t="n">
         <v>2623.573505376138</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>695.9798268587604</v>
+        <v>121.7597025423748</v>
       </c>
       <c r="C43" t="n">
-        <v>527.0436439308535</v>
+        <v>121.7597025423748</v>
       </c>
       <c r="D43" t="n">
-        <v>376.9270045185177</v>
+        <v>121.7597025423748</v>
       </c>
       <c r="E43" t="n">
-        <v>376.9270045185177</v>
+        <v>121.7597025423748</v>
       </c>
       <c r="F43" t="n">
-        <v>376.9270045185177</v>
+        <v>121.7597025423748</v>
       </c>
       <c r="G43" t="n">
-        <v>208.7516828383384</v>
+        <v>121.7597025423748</v>
       </c>
       <c r="H43" t="n">
-        <v>208.7516828383384</v>
+        <v>121.7597025423748</v>
       </c>
       <c r="I43" t="n">
         <v>97.21709146028584</v>
@@ -7593,28 +7593,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>1187.92115703528</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U43" t="n">
-        <v>1167.045461725961</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V43" t="n">
-        <v>1167.045461725961</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W43" t="n">
-        <v>877.6282916890001</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="X43" t="n">
-        <v>877.6282916890001</v>
+        <v>303.4081673726145</v>
       </c>
       <c r="Y43" t="n">
-        <v>877.6282916890001</v>
+        <v>303.4081673726145</v>
       </c>
     </row>
     <row r="44">
@@ -7624,13 +7624,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
         <v>1315.304916405196</v>
@@ -7639,40 +7639,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7681,19 +7681,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="45">
@@ -7724,10 +7724,10 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K45" t="n">
         <v>508.1073603047985</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.21709146028587</v>
+        <v>1141.200876391121</v>
       </c>
       <c r="C46" t="n">
-        <v>97.21709146028587</v>
+        <v>972.2646934632137</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028587</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028587</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028587</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028587</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
@@ -7830,28 +7830,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S46" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T46" t="n">
-        <v>1158.436939387592</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U46" t="n">
-        <v>869.3083006011507</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="V46" t="n">
-        <v>614.6238123952638</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="W46" t="n">
-        <v>325.2066423583032</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="X46" t="n">
-        <v>97.21709146028587</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.21709146028587</v>
+        <v>1322.84934122136</v>
       </c>
     </row>
   </sheetData>
@@ -8771,16 +8771,16 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>158.9979480233626</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
@@ -10591,7 +10591,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504502</v>
       </c>
       <c r="M35" t="n">
         <v>449.5135334928325</v>
@@ -10840,13 +10840,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714832</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11062,7 +11062,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.145412571165</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
@@ -23433,7 +23433,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>9.760100492532558</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23466,10 +23466,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>130.2072968896586</v>
+        <v>56.36903246710725</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,25 +23700,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23904,7 +23904,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
@@ -23940,25 +23940,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>52.3998233988053</v>
       </c>
       <c r="T19" t="n">
-        <v>133.1420986615191</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24129,19 +24129,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>75.16146936547156</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
@@ -24180,7 +24180,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24189,13 +24189,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>103.0576765518772</v>
       </c>
     </row>
     <row r="23">
@@ -24375,7 +24375,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
@@ -24414,25 +24414,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>29.89407122271371</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>14.45548819888947</v>
       </c>
     </row>
     <row r="26">
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>81.85048239657633</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24654,19 +24654,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>163.1984961378301</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24843,7 +24843,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24888,10 +24888,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>82.39383318338571</v>
+        <v>33.08849621799493</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25128,19 +25128,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>29.89407122271382</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>154.9255656514762</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25368,7 +25368,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>103.0576765518773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>103.0576765518772</v>
       </c>
     </row>
     <row r="38">
@@ -25551,25 +25551,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>197.9208099836032</v>
@@ -25608,16 +25608,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>38.40013348586626</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>108.8451328388535</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25788,10 +25788,10 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25800,13 +25800,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>86.12206049300396</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,25 +25833,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>265.5704140423512</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -26022,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,28 +26070,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>82.39383318338571</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>154.2427457127107</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>840712.4784360742</v>
+        <v>840712.4784360743</v>
       </c>
     </row>
     <row r="6">
@@ -26313,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>554203.1946583914</v>
+        <v>554203.1946583912</v>
       </c>
       <c r="C2" t="n">
-        <v>554203.1946583912</v>
+        <v>554203.1946583915</v>
       </c>
       <c r="D2" t="n">
-        <v>554203.1946583908</v>
+        <v>554203.1946583909</v>
       </c>
       <c r="E2" t="n">
-        <v>527889.2306459071</v>
+        <v>527889.2306459069</v>
       </c>
       <c r="F2" t="n">
-        <v>527889.2306459071</v>
+        <v>527889.2306459068</v>
       </c>
       <c r="G2" t="n">
         <v>527889.2306459069</v>
@@ -26334,13 +26334,13 @@
         <v>527889.2306459071</v>
       </c>
       <c r="I2" t="n">
-        <v>527889.2306459069</v>
+        <v>527889.2306459072</v>
       </c>
       <c r="J2" t="n">
-        <v>527889.2306459069</v>
+        <v>527889.230645907</v>
       </c>
       <c r="K2" t="n">
-        <v>527889.2306459069</v>
+        <v>527889.230645907</v>
       </c>
       <c r="L2" t="n">
         <v>527889.2306459069</v>
@@ -26349,13 +26349,13 @@
         <v>527889.230645907</v>
       </c>
       <c r="N2" t="n">
-        <v>527889.2306459069</v>
+        <v>527889.2306459068</v>
       </c>
       <c r="O2" t="n">
-        <v>527889.2306459069</v>
+        <v>527889.2306459072</v>
       </c>
       <c r="P2" t="n">
-        <v>527889.2306459069</v>
+        <v>527889.230645907</v>
       </c>
     </row>
     <row r="3">
@@ -26371,10 +26371,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2.434074986013002e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768957</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,34 +26423,34 @@
         <v>139059.1391806191</v>
       </c>
       <c r="D4" t="n">
-        <v>139059.139180619</v>
+        <v>139059.1391806191</v>
       </c>
       <c r="E4" t="n">
         <v>787.7936905758694</v>
       </c>
       <c r="F4" t="n">
-        <v>787.7936905759088</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="G4" t="n">
         <v>787.7936905758695</v>
       </c>
       <c r="H4" t="n">
+        <v>787.7936905758695</v>
+      </c>
+      <c r="I4" t="n">
+        <v>787.7936905758695</v>
+      </c>
+      <c r="J4" t="n">
         <v>787.7936905758694</v>
       </c>
-      <c r="I4" t="n">
+      <c r="K4" t="n">
         <v>787.7936905758694</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>787.7936905758695</v>
       </c>
-      <c r="K4" t="n">
-        <v>787.7936905758695</v>
-      </c>
-      <c r="L4" t="n">
+      <c r="M4" t="n">
         <v>787.7936905758694</v>
-      </c>
-      <c r="M4" t="n">
-        <v>787.7936905759103</v>
       </c>
       <c r="N4" t="n">
         <v>787.7936905758694</v>
@@ -26459,7 +26459,7 @@
         <v>787.7936905758695</v>
       </c>
       <c r="P4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758694</v>
       </c>
     </row>
     <row r="5">
@@ -26475,7 +26475,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871662</v>
@@ -26487,10 +26487,10 @@
         <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871664</v>
@@ -26499,16 +26499,16 @@
         <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
         <v>91987.32594871664</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-257682.9018001815</v>
+        <v>-257682.9018001818</v>
       </c>
       <c r="C6" t="n">
-        <v>332284.9774143626</v>
+        <v>332284.9774143629</v>
       </c>
       <c r="D6" t="n">
-        <v>332284.9774143621</v>
+        <v>332284.9774143625</v>
       </c>
       <c r="E6" t="n">
-        <v>-91020.5167300027</v>
+        <v>-90143.38459625392</v>
       </c>
       <c r="F6" t="n">
-        <v>434139.519746893</v>
+        <v>435016.6518806421</v>
       </c>
       <c r="G6" t="n">
-        <v>434139.5197468927</v>
+        <v>435016.6518806422</v>
       </c>
       <c r="H6" t="n">
-        <v>434139.519746893</v>
+        <v>435016.6518806425</v>
       </c>
       <c r="I6" t="n">
-        <v>434139.5197468927</v>
+        <v>435016.6518806426</v>
       </c>
       <c r="J6" t="n">
-        <v>257716.3005542997</v>
+        <v>258593.4326880494</v>
       </c>
       <c r="K6" t="n">
-        <v>434139.5197468927</v>
+        <v>435016.6518806423</v>
       </c>
       <c r="L6" t="n">
-        <v>434139.5197468927</v>
+        <v>435016.6518806422</v>
       </c>
       <c r="M6" t="n">
-        <v>299338.5045130557</v>
+        <v>300215.6366468052</v>
       </c>
       <c r="N6" t="n">
-        <v>434139.5197468927</v>
+        <v>435016.6518806421</v>
       </c>
       <c r="O6" t="n">
-        <v>434139.5197468927</v>
+        <v>435016.6518806426</v>
       </c>
       <c r="P6" t="n">
-        <v>434139.5197468927</v>
+        <v>435016.6518806423</v>
       </c>
     </row>
   </sheetData>
@@ -26740,10 +26740,10 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.743664217087</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541002</v>
@@ -26755,31 +26755,31 @@
         <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545559</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26965,10 +26965,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370132</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990171</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990171</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990171</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>219.1066049712198</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27387,7 +27387,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>259.6327696429536</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27396,7 +27396,7 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -27426,7 +27426,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -27441,13 +27441,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>120.1051426060688</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27599,7 +27599,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>226.7961607607226</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27618,7 +27618,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27636,7 +27636,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,16 +27663,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>248.3475241484817</v>
+        <v>190.7623767421584</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27776,10 +27776,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>38.46332039683776</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27833,7 +27833,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>187.07879341505</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27855,25 +27855,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>290.2087078019632</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448612</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,19 +27900,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>30.19760335462547</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28010,19 +28010,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>120.1051426060683</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853696</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491425</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28073,13 +28073,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>63.37316471551392</v>
       </c>
     </row>
     <row r="11">
@@ -28326,7 +28326,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>8.682195192673604e-13</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -29988,7 +29988,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -31132,7 +31132,7 @@
         <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
-        <v>11.76595806653259</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L3" t="n">
         <v>176.4169820478007</v>
@@ -31141,7 +31141,7 @@
         <v>205.8702969983122</v>
       </c>
       <c r="N3" t="n">
-        <v>211.31907117367</v>
+        <v>195.5988322391985</v>
       </c>
       <c r="O3" t="n">
         <v>193.3156655923047</v>
@@ -31150,7 +31150,7 @@
         <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>50.44659727034982</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,13 +31357,13 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -31372,7 +31372,7 @@
         <v>131.2017781649102</v>
       </c>
       <c r="L6" t="n">
-        <v>132.9984977071298</v>
+        <v>132.99849770713</v>
       </c>
       <c r="M6" t="n">
         <v>205.8702969983122</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340047</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141001</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554472</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727437</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081579</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630672</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405369</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338307</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119868</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954669</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044139</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633806</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727386</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473559</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141116</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188921</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890692</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
         <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478009</v>
+        <v>132.9984977071305</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983124</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>167.9005868329983</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923049</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479579</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034986</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131474</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372668</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619158</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078616</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644448</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492007</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813582</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302246</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246925</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M10" t="n">
-        <v>106.7776065917251</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666595</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175852</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383808</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678013</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701166</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695337</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197226</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315613</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31843,7 +31843,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>387.8120847358985</v>
@@ -31852,7 +31852,7 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>83.90392744164188</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -32089,7 +32089,7 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>380.4309478731437</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32098,7 +32098,7 @@
         <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710956</v>
+        <v>143.8894692628929</v>
       </c>
       <c r="R15" t="n">
         <v>100.1578341526431</v>
@@ -32253,7 +32253,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946997</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32323,10 +32323,10 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>213.9849829127209</v>
       </c>
       <c r="N18" t="n">
-        <v>225.9628574215825</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32463,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32481,7 +32481,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32490,7 +32490,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32499,7 +32499,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32560,7 +32560,7 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
         <v>392.6063366508803</v>
@@ -32578,10 +32578,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32642,7 +32642,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32654,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32718,7 +32718,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32727,7 +32727,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32736,7 +32736,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32797,7 +32797,7 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
         <v>392.6063366508803</v>
@@ -32815,10 +32815,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32879,7 +32879,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32891,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32955,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32964,16 +32964,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
-        <v>209.6945076446492</v>
+        <v>209.6945076446473</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33034,7 +33034,7 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
         <v>392.6063366508803</v>
@@ -33052,10 +33052,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33116,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33128,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33192,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33201,16 +33201,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
       </c>
       <c r="R29" t="n">
-        <v>209.6945076446492</v>
+        <v>209.6945076446473</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33271,7 +33271,7 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
         <v>392.6063366508803</v>
@@ -33289,10 +33289,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33353,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33365,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33429,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33438,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33447,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33508,7 +33508,7 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
         <v>392.6063366508803</v>
@@ -33526,10 +33526,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33590,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33602,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33666,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33675,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33684,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33745,7 +33745,7 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
         <v>392.6063366508803</v>
@@ -33763,10 +33763,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33827,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33839,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33903,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33912,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33921,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33982,7 +33982,7 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
         <v>392.6063366508803</v>
@@ -34000,10 +34000,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34064,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34076,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34140,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34158,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34213,16 +34213,16 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622982</v>
+        <v>216.4869287318324</v>
       </c>
       <c r="L42" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>392.6063366508803</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -34237,10 +34237,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34301,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34313,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34377,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34386,16 +34386,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
-        <v>209.6945076446492</v>
+        <v>209.6945076446473</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34456,7 +34456,7 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
         <v>392.6063366508803</v>
@@ -34474,10 +34474,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34538,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34550,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34780,7 +34780,7 @@
         <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34789,7 +34789,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>543.5994944994187</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
@@ -34798,7 +34798,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35020,19 +35020,19 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>365.2844632307148</v>
+        <v>365.284463230715</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343421</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435304</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060967</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492239</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530454</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.93761631168</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898691</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35254,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713858</v>
+        <v>365.2844632307155</v>
       </c>
       <c r="M9" t="n">
-        <v>529.441326826294</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>515.9012490932186</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.58174042459</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735648</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137342</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713961</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850086</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535657</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N10" t="n">
-        <v>148.3708461458881</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873156</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35491,16 +35491,16 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
-        <v>16.86391410134428</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>431.9045897018621</v>
       </c>
       <c r="O12" t="n">
         <v>676.2260215178376</v>
@@ -35737,7 +35737,7 @@
         <v>323.5710298279816</v>
       </c>
       <c r="N15" t="n">
-        <v>728.431610133364</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O15" t="n">
         <v>676.2260215178376</v>
@@ -35746,7 +35746,7 @@
         <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>213.9849829127205</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35901,7 +35901,7 @@
         <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109128</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
         <v>350.4995841502048</v>
@@ -35971,10 +35971,10 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>776.1294408004661</v>
+        <v>537.5560127407025</v>
       </c>
       <c r="N18" t="n">
-        <v>573.9635196818027</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O18" t="n">
         <v>676.2260215178376</v>
@@ -36123,13 +36123,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36208,7 +36208,7 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M21" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N21" t="n">
         <v>740.6069989111005</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36293,13 +36293,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,13 +36360,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36445,7 +36445,7 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M24" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N24" t="n">
         <v>740.6069989111005</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36530,13 +36530,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,13 +36597,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36682,7 +36682,7 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N27" t="n">
         <v>740.6069989111005</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36767,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,13 +36834,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36919,7 +36919,7 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N30" t="n">
         <v>740.6069989111005</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37004,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37071,13 +37071,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37156,7 +37156,7 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M33" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N33" t="n">
         <v>740.6069989111005</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37241,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,13 +37308,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109072</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37393,7 +37393,7 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N36" t="n">
         <v>740.6069989111005</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37478,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,13 +37545,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37560,13 +37560,13 @@
         <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109128</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37630,7 +37630,7 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N39" t="n">
         <v>740.6069989111005</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37715,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,13 +37782,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303332</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,16 +37861,16 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>343.1107267700521</v>
       </c>
       <c r="L42" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M42" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N42" t="n">
-        <v>740.6069989111005</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37952,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,13 +38019,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38104,7 +38104,7 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M45" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N45" t="n">
         <v>740.6069989111005</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38189,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
